--- a/NEXA/NEXA.xlsx
+++ b/NEXA/NEXA.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasyl\Мій диск\SALES\!!!-PRICE-!!!\price\GLOBAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasyl\Мій диск\SALES\!!!-PRICE-!!!\price\NEXA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD3B4FA7-07EC-4000-963D-8B8B223386E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2BEF63E-F173-4FCE-9C5F-5F6B6D1CA5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="STAN JAROSLAW 04" sheetId="1" r:id="rId1"/>
+    <sheet name="STAN JAROSLAW 07K" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="675">
   <si>
     <t>Oznacz</t>
   </si>
@@ -34,48 +34,78 @@
     <t>BATERIA KERNAU KET06 PO GRAPHITE/CH</t>
   </si>
   <si>
+    <t>BLENDER BOSCH MS6CA4120</t>
+  </si>
+  <si>
+    <t>BLENDER BOSCH MS6CA41H50</t>
+  </si>
+  <si>
     <t>BLENDER BOSCH MSM 66150</t>
   </si>
   <si>
+    <t>BLENDER BOSCH MSM 67140</t>
+  </si>
+  <si>
     <t>BLENDER BOSCH MSM P1000</t>
   </si>
   <si>
+    <t>BLENDER BOSCH MSM26500</t>
+  </si>
+  <si>
     <t>BOSCH PIEKARNIK HBG635BS1</t>
   </si>
   <si>
+    <t>CZAJNIK  BOSCH TWK 7604</t>
+  </si>
+  <si>
+    <t>CZAJNIK BOSCH TWK 3A011 BIAŁY</t>
+  </si>
+  <si>
     <t>CZAJNIK BOSCH TWK 3A014 CZERWONY</t>
   </si>
   <si>
     <t>CZAJNIK BOSCH TWK 3A017</t>
   </si>
   <si>
+    <t>CZAJNIK BOSCH TWK 7601</t>
+  </si>
+  <si>
+    <t>CZAJNIK BOSCH TWK3P420</t>
+  </si>
+  <si>
+    <t>CZAJNIK BOSCH TWK6A017</t>
+  </si>
+  <si>
+    <t>CZAJNIK GORENJE K15DWW</t>
+  </si>
+  <si>
     <t>CZAJNIK GORENJE K17FEII</t>
   </si>
   <si>
-    <t>CZAJNIK GORENJE K17TRB</t>
-  </si>
-  <si>
-    <t>EKSPRES DELONGHI ECAM350.50B</t>
+    <t>CZAJNIK KERNAU KSK171BK</t>
   </si>
   <si>
     <t>EKSPRES SIEMENS TQ503R01</t>
   </si>
   <si>
-    <t>FILTR KARCHER WD/SE 2.863-303.0</t>
+    <t>GENERATOR PRĄDU FOGO F2001IS</t>
   </si>
   <si>
     <t>GRILL BOSCH TFB 3302V</t>
   </si>
   <si>
+    <t>GRZEJNIK OLEJOWY ARDES AR4R07S 7 ŻEBEREK 1500W</t>
+  </si>
+  <si>
+    <t>GRZEJNIK OLEJOWY MAESTRO MR950-9</t>
+  </si>
+  <si>
     <t>GRZEJNIK OLEJOWY RAVANSON OH-09 ŻEBERKOWY</t>
   </si>
   <si>
     <t>HUAWEI Y3 SMARTFON BLACK #</t>
   </si>
   <si>
-    <t>KARCHER PAROWNICA SC2 1.513-345.0</t>
-  </si>
-  <si>
     <t>KLAWIATURA TRACER MAVERICK</t>
   </si>
   <si>
@@ -85,16 +115,13 @@
     <t>KONWEKTOR LUXPOL CH-11</t>
   </si>
   <si>
-    <t>KUCHNIA  GORENJE K535B</t>
-  </si>
-  <si>
     <t>KUCHNIA BEKO FSE 62120 DW</t>
   </si>
   <si>
     <t>KUCHNIA BEKO FSE 62120 DX</t>
   </si>
   <si>
-    <t>KUCHNIA GORENJE EC5111WG</t>
+    <t>KUCHNIA GORENJE EIT5355WPG</t>
   </si>
   <si>
     <t>KUCHNIA GORENJE EIT6355XPD</t>
@@ -103,30 +130,12 @@
     <t>KUCHNIA GORENJE K 634XH</t>
   </si>
   <si>
-    <t>KUCHNIA GORENJE K5340SH</t>
-  </si>
-  <si>
     <t>KUCHNIA GORENJE K5341 SJ</t>
   </si>
   <si>
     <t>KUCHNIA GORENJE K5341 WJ</t>
   </si>
   <si>
-    <t>KUCHNIA GORENJE K5351SH</t>
-  </si>
-  <si>
-    <t>KUCHNIA GORENJE K5351WH</t>
-  </si>
-  <si>
-    <t>KUCHNIA GORENJE K5352SH</t>
-  </si>
-  <si>
-    <t>KUCHNIA GORENJE K634W</t>
-  </si>
-  <si>
-    <t>KUCHNIA GORENJE K634WH</t>
-  </si>
-  <si>
     <t>KUCHNIA INDUKCYJNA LI-35P2N</t>
   </si>
   <si>
@@ -157,31 +166,34 @@
     <t>LODÓWKA BOSCH KGN33NLEB</t>
   </si>
   <si>
+    <t>LODÓWKA BOSCH KGN33NWEB</t>
+  </si>
+  <si>
     <t>LODÓWKA CANDY CCE3T618FW</t>
   </si>
   <si>
     <t>LODÓWKA GORENJE NRK 6181PW4</t>
   </si>
   <si>
-    <t>LODÓWKA GORENJE NRK 6191ES4</t>
-  </si>
-  <si>
     <t>LODÓWKA GORENJE NRK6191EW4</t>
   </si>
   <si>
-    <t>LODÓWKA GORENJE NRK6202AW4</t>
-  </si>
-  <si>
-    <t>LODÓWKA GORENJE NRM8182MX</t>
-  </si>
-  <si>
     <t>LODÓWKA GORENJE RK4181PS4</t>
   </si>
   <si>
+    <t>LODÓWKA GORENJE RK4181PW4</t>
+  </si>
+  <si>
     <t>LODÓWKA KERNAU KFRC15153.1W</t>
   </si>
   <si>
-    <t>LODÓWKA LG GBB61BLHEC</t>
+    <t>LODÓWKA LG GBB61DSHMN</t>
+  </si>
+  <si>
+    <t>LODÓWKA LG GBB72MCDMN</t>
+  </si>
+  <si>
+    <t>LODÓWKA LG GBB72PZUGN</t>
   </si>
   <si>
     <t>LODÓWKA SAMSUNG BRB 26600FWW</t>
@@ -190,13 +202,16 @@
     <t>LODÓWKA SAMSUNG BRB 26605DWW</t>
   </si>
   <si>
+    <t>LODÓWKA SAMSUNG BRB 26615FWW</t>
+  </si>
+  <si>
     <t>LODÓWKA SAMSUNG BRB 26705FWW</t>
   </si>
   <si>
-    <t>LODÓWKA SAMSUNG BRB 30602FWW</t>
-  </si>
-  <si>
-    <t>LODÓWKA SAMSUNG RB 34T600DSA</t>
+    <t>LODÓWKA SAMSUNG BRB 30705DWW</t>
+  </si>
+  <si>
+    <t>LODÓWKA SAMSUNG RB 34T674EB1</t>
   </si>
   <si>
     <t>LODÓWKA SAMSUNG RB 38T603FSA</t>
@@ -208,22 +223,16 @@
     <t>LODÓWKA SAMSUNG RB 38T675EEL</t>
   </si>
   <si>
-    <t>LODÓWKA SAMSUNG RB34T600EBN</t>
-  </si>
-  <si>
     <t>LODÓWKA SAMSUNG RB34T600EWW</t>
   </si>
   <si>
-    <t>LODÓWKA SAMSUNG RB34T600FWW</t>
-  </si>
-  <si>
     <t>LODÓWKA SAMSUNG RB34T601FS9</t>
   </si>
   <si>
-    <t>LODÓWKA SAMSUNG RB38T600ESA</t>
-  </si>
-  <si>
-    <t>LODÓWKA SAMSUNG RB38T674EB1</t>
+    <t>LODÓWKA SAMSUNG RB38T600EB1</t>
+  </si>
+  <si>
+    <t>LODÓWKA SAMSUNG RB38T600FSA</t>
   </si>
   <si>
     <t>LODÓWKA SAMSUNG RS50N3913BC</t>
@@ -232,49 +241,37 @@
     <t>LODÓWKA SIEMENS KG49NXXEA</t>
   </si>
   <si>
-    <t>LODÓWKA TOSCHIBA GR-RB500WE-PMJ</t>
-  </si>
-  <si>
     <t>LODÓWKA WHIRLPOOL ARG 590</t>
   </si>
   <si>
-    <t>LODÓWKA WHIRLPOOL ART 65011</t>
+    <t>LODÓWKA WHIRLPOOL ART 65021</t>
   </si>
   <si>
     <t>LODÓWKA WHIRLPOOL W55VM1110W1</t>
   </si>
   <si>
-    <t>LODÓWKA WHIRLPOOL W5711EW1</t>
+    <t>LODÓWKA WHIRLPOOL W5911EW1</t>
   </si>
   <si>
     <t>LODÓWKA WHIRLPOOL WB70E973X</t>
   </si>
   <si>
-    <t>LODÓWKA WHIRPOOL ART 9811SF2</t>
-  </si>
-  <si>
     <t>LODÓWKA WHIRPOOL SP40801</t>
   </si>
   <si>
     <t>LODÓWKA WHIRPOOL W5811 EW1</t>
   </si>
   <si>
-    <t>LODÓWKA WHIRPOOL W5811EOX1</t>
-  </si>
-  <si>
-    <t>LODÓWKA WHIRPOOL W5911 EOX1</t>
-  </si>
-  <si>
-    <t>MIKROFALA BOSCH BEL623MB3</t>
-  </si>
-  <si>
-    <t>MIKROFALA GORENJE MO20E1B</t>
-  </si>
-  <si>
-    <t>MIKROFALA SAMSUNG MS 23F301 TAS</t>
-  </si>
-  <si>
-    <t>MIKROFALA SAMSUNG MS22M8054AK</t>
+    <t>MALAKSER BOSCH MUM 4875 EU</t>
+  </si>
+  <si>
+    <t>MASZYNKA DO MIĘSA BOSCH MMWPL 3003</t>
+  </si>
+  <si>
+    <t>MIKROFALA GORENJE MO20A3X</t>
+  </si>
+  <si>
+    <t>MIKROFALA SAMSUNG NQ50A6139BK</t>
   </si>
   <si>
     <t>MIKROFALA WHIRLPOOL W7MD440NB</t>
@@ -283,16 +280,7 @@
     <t>MIKROFALA WHIRLPOOL W9MD260IXL</t>
   </si>
   <si>
-    <t>MIKROFALA WHIRPOOL MWP 101SB</t>
-  </si>
-  <si>
-    <t>MIKROFALÓWKA BOSCH BFL550MB0</t>
-  </si>
-  <si>
-    <t>MIKROFALÓWKA BOSCH BFR634GB1</t>
-  </si>
-  <si>
-    <t>MIKROFALÓWKA GORENJE BM201AG1BG</t>
+    <t>MIKROFALÓWKA BOSCH BFR634GW1 BIAŁA</t>
   </si>
   <si>
     <t>MIKROFALÓWKA GORENJE BM201AG1X</t>
@@ -301,15 +289,6 @@
     <t>MIKROFALÓWKA GORENJE BM235 CLB</t>
   </si>
   <si>
-    <t>MIKROFALÓWKA GORENJE BM235CLI</t>
-  </si>
-  <si>
-    <t>MIKROFALÓWKA GORENJE BM235SYW</t>
-  </si>
-  <si>
-    <t>MIKROFALÓWKA GORENJE MO17E1S</t>
-  </si>
-  <si>
     <t>MIKROFALÓWKA GORENJE MO20A3B</t>
   </si>
   <si>
@@ -328,19 +307,16 @@
     <t>MIKROFALÓWKA WHIRLPOOL AMW734IX</t>
   </si>
   <si>
-    <t>MIKROFALÓWKA WHIRLPOOL MWP103B</t>
+    <t>MIKROFALÓWKA WHIRLPOOL MWP103W</t>
   </si>
   <si>
     <t>MIKROFALÓWKA WHIRLPOOL WMF200GNB</t>
   </si>
   <si>
-    <t>MIKROFALÓWKA WHIRPOOL  AMW4900 IX</t>
-  </si>
-  <si>
     <t>MIKSER BOSCH MFQ 3555</t>
   </si>
   <si>
-    <t>MIKSER BOSCH MFQ 40303</t>
+    <t>MIKSER BOSCH MFQ 36440</t>
   </si>
   <si>
     <t>MIKSER BOSCH MFQ2600W</t>
@@ -349,19 +325,10 @@
     <t>MIKSER BOSCH MFQ3561W</t>
   </si>
   <si>
-    <t>MIKSER BOSCH MFQ36460</t>
-  </si>
-  <si>
-    <t>MIKSER BOSCH MFQ4020</t>
-  </si>
-  <si>
     <t>MIKSER BOSCH MFQ40304</t>
   </si>
   <si>
-    <t>MIKSER BOSCH MFQ4730</t>
-  </si>
-  <si>
-    <t>MIKSER RECZNY BOSCH MFQ 3530  450w  5 stopni  pręd.</t>
+    <t>MIKSER GORENJE M460CDC</t>
   </si>
   <si>
     <t>MŁYNEK DO KAWY BOSCH TSM 6A013B</t>
@@ -404,48 +371,48 @@
     <t>ODKURZACZ ELECTROLUX EEG43WR</t>
   </si>
   <si>
-    <t>ODKURZACZ GORENJE SVC252GFA</t>
-  </si>
-  <si>
     <t>ODKURZACZ KARCHER VC2 1.198-105.0</t>
   </si>
   <si>
-    <t>ODKURZACZ KARCHER WD3 V-17/4/20 1.628-101.0</t>
-  </si>
-  <si>
     <t>ODKURZACZ KARCHER WD4S V20/5/22 1.628-250.0</t>
   </si>
   <si>
     <t>ODKURZACZ PHILIPS FC 6408/01</t>
   </si>
   <si>
-    <t>ODKURZACZ PHILIPS FC 8240/09</t>
+    <t>ODKURZACZ PHILIPS FC8241/09</t>
   </si>
   <si>
     <t>ODKURZACZ PHILIPS XB 2122/09</t>
   </si>
   <si>
+    <t>ODKURZACZ PIONOWY GORENJE SVC180FW</t>
+  </si>
+  <si>
     <t>ODKURZACZ SAMSUNG VC07M25E0WR</t>
   </si>
   <si>
     <t>ODKURZACZ SAMSUNG VCC 45W0S36</t>
   </si>
   <si>
+    <t>OKAP AMICA OWC4241BO</t>
+  </si>
+  <si>
     <t>OKAP FRANKE FTC 6032 GR/XS v2 SREBRNY</t>
   </si>
   <si>
+    <t>OKAP GORENJE TH62E4BG</t>
+  </si>
+  <si>
+    <t>OKAP KERNAU KCH 0140 X ISLAND</t>
+  </si>
+  <si>
     <t>OKAP SAMSUNG NK24M1030IS</t>
   </si>
   <si>
-    <t>PAROWNICA KARCHER SC 2 EASYFIX 1.512-050.0</t>
-  </si>
-  <si>
     <t>PIEKARNIK BEKO BIM36300XCS</t>
   </si>
   <si>
-    <t>PIEKARNIK BOSCH HAF113ES1</t>
-  </si>
-  <si>
     <t>PIEKARNIK BOSCH HBA 534 EBO</t>
   </si>
   <si>
@@ -455,13 +422,19 @@
     <t>PIEKARNIK BOSCH HBF 134ES1</t>
   </si>
   <si>
+    <t>PIEKARNIK BOSCH HBG2780S0</t>
+  </si>
+  <si>
     <t>PIEKARNIK BOSCH HBG5370B0</t>
   </si>
   <si>
-    <t>PIEKARNIK BOSCH HBG635BB1</t>
-  </si>
-  <si>
-    <t>PIEKARNIK ELECTROLUX EOF3H40X</t>
+    <t>PIEKARNIK ELECTROLUX EZB 3400AOX</t>
+  </si>
+  <si>
+    <t>PIEKARNIK ELECTROLUX EZB3410AOX</t>
+  </si>
+  <si>
+    <t>PIEKARNIK GORENJE BO6725E02BG</t>
   </si>
   <si>
     <t>PIEKARNIK GORENJE BO6735E02X</t>
@@ -470,13 +443,19 @@
     <t>PIEKARNIK GORENJE BO6735E05B</t>
   </si>
   <si>
-    <t>PIEKARNIK GORENJE BO76SYW</t>
-  </si>
-  <si>
-    <t>PIEKARNIK GORENJE BOS6737E20FBG</t>
-  </si>
-  <si>
-    <t>PIEKARNIK SAMSUNG NQ 50H5537 KB/EO</t>
+    <t>PIEKARNIK GORENJE BOSB6737E06X</t>
+  </si>
+  <si>
+    <t>PIEKARNIK GORENJE BPSX6747A05BG</t>
+  </si>
+  <si>
+    <t>PIEKARNIK GORENJE BSA6737ORAB</t>
+  </si>
+  <si>
+    <t>PIEKARNIK GORENJE BSA6737ORAW</t>
+  </si>
+  <si>
+    <t>PIEKARNIK SAMSUNG NQ50A6539BK</t>
   </si>
   <si>
     <t>PIEKARNIK SAMSUNG NV64R3531BS</t>
@@ -488,21 +467,15 @@
     <t>PIEKARNIK SAMSUNG NV70K2340RM</t>
   </si>
   <si>
-    <t>PIEKARNIK SAMSUNG NV75K5541RB</t>
+    <t>PIEKARNIK SIEMENS HB 634GBS1</t>
   </si>
   <si>
     <t>PIEKARNIK WHIRLPOOL AKP 446 IX</t>
   </si>
   <si>
-    <t>PIEKARNIK WHIRLPOOL AKP 782IX</t>
-  </si>
-  <si>
     <t>PIEKARNIK WHIRLPOOL AKP 785 IX</t>
   </si>
   <si>
-    <t>PIEKARNIK WHIRLPOOL AKZ96230 S</t>
-  </si>
-  <si>
     <t>PIEKARNIK WHIRLPOOL AKZ96230IX</t>
   </si>
   <si>
@@ -512,7 +485,7 @@
     <t>PIEKARNIK WHIRLPOOL AKZ96230WH</t>
   </si>
   <si>
-    <t>PIEKARNIK WHIRLPOOL AKZ96290NB</t>
+    <t>PIEKARNIK WHIRLPOOL AKZ96240NB</t>
   </si>
   <si>
     <t>PIEKARNIK WHIRLPOOL AKZM8420NB</t>
@@ -521,9 +494,15 @@
     <t>PIEKARNIK WHIRLPOOL W9OP24S2H</t>
   </si>
   <si>
+    <t>PIEKARNIK WHIRPOOL AKP 738NB</t>
+  </si>
+  <si>
     <t>PIEKARNK WHIRPOOL AKZM 8480 NB</t>
   </si>
   <si>
+    <t>PIEKARRNIK GORENJE BO6737E02BG</t>
+  </si>
+  <si>
     <t>PŁYAT SAMSUNG NA 64H3000AK/01</t>
   </si>
   <si>
@@ -533,22 +512,55 @@
     <t>PŁYTA BOSCH PCP6A5B90</t>
   </si>
   <si>
+    <t>PŁYTA BOSCH PKE645BB2E</t>
+  </si>
+  <si>
+    <t>PŁYTA BOSCH PPP6A6B90</t>
+  </si>
+  <si>
     <t>PŁYTA BOSCH PUE63RBB5E</t>
   </si>
   <si>
     <t>PŁYTA BOSCH PUG 611AA5E</t>
   </si>
   <si>
-    <t>PŁYTA CERAMICZNA GORENJE ECT643BCSC</t>
-  </si>
-  <si>
-    <t>PŁYTA ELECTROLUX EGG6407K</t>
+    <t>PŁYTA BOSCH PVS61RBB5E</t>
+  </si>
+  <si>
+    <t>PŁYTA ELECTROLUX EHF16240 XK</t>
+  </si>
+  <si>
+    <t>PŁYTA ELECTROLUX EHF46547XK</t>
+  </si>
+  <si>
+    <t>PŁYTA ELECTROLUX EHH 6240 ISK</t>
+  </si>
+  <si>
+    <t>PŁYTA GORENJE ECT641BCSC</t>
+  </si>
+  <si>
+    <t>PŁYTA GORENJE G642AB</t>
   </si>
   <si>
     <t>PŁYTA GORENJE GTW641EB</t>
   </si>
   <si>
-    <t>PŁYTA GORENJE IT 645BCSC</t>
+    <t>PŁYTA GORENJE GTW642AXW</t>
+  </si>
+  <si>
+    <t>PŁYTA GORENJE GW642ABX</t>
+  </si>
+  <si>
+    <t>PŁYTA GORENJE IT64 ASC</t>
+  </si>
+  <si>
+    <t>PŁYTA GORENJE IT640 BSC</t>
+  </si>
+  <si>
+    <t>PŁYTA GORENJE IT641BSC7</t>
+  </si>
+  <si>
+    <t>PŁYTA GORENJE IT643BSC7</t>
   </si>
   <si>
     <t>PŁYTA INDUKCYJNA KERNAU KIH64.2</t>
@@ -557,21 +569,15 @@
     <t>PŁYTA SAMSUNG NA 64H3031 AK</t>
   </si>
   <si>
+    <t>PŁYTA SAMSUNG NA64H3030BK/01</t>
+  </si>
+  <si>
     <t>PŁYTA SAMSUNG NZ 64H37075K</t>
   </si>
   <si>
-    <t>PŁYTA SASMUNG NA64H3030AS/O1</t>
-  </si>
-  <si>
     <t>PŁYTA SIEMENS ED631BSB5E</t>
   </si>
   <si>
-    <t>PŁYTA WHIRLPOOL AKR 361 IX</t>
-  </si>
-  <si>
-    <t>PŁYTA WHIRLPOOL AKT 616NB</t>
-  </si>
-  <si>
     <t>PŁYTA WHIRLPOOL AKT 801/NE</t>
   </si>
   <si>
@@ -590,33 +596,25 @@
     <t>PŁYTA WHIRLPOOL AKTL 629WH</t>
   </si>
   <si>
-    <t>PŁYTA WHIRLPOOL WBB3960BF</t>
-  </si>
-  <si>
-    <t>PŁYTA WHIRLPOOL WLB3360NE</t>
-  </si>
-  <si>
-    <t>PŁYTA WHIRLPOOL WLB6860NES</t>
+    <t>PŁYTA WHIRLPOOL AKWL628IXL</t>
+  </si>
+  <si>
+    <t>PŁYTA WHIRLPOOL WS Q4860 NE</t>
   </si>
   <si>
     <t>PŁYTA WHIRLPOOL WSQ 2160NE</t>
   </si>
   <si>
-    <t>PŁYTA WHIRLPOOL WSS4060BF</t>
-  </si>
-  <si>
-    <t>PRAL- SUSZA WHIRLPOOL WDWG 961484EU</t>
-  </si>
-  <si>
-    <t>PRALKA BEKO AWUE6511BWW3</t>
+    <t>PŁYTA WHIRPOOL SMO 658C/BT/IXL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PODKASZARKA KARCHER LTR 18-25 1.444-301.0
+</t>
   </si>
   <si>
     <t>PRALKA BOSCH WAJ2006APL</t>
   </si>
   <si>
-    <t>PRALKA BOSCH WAJ2406SPL</t>
-  </si>
-  <si>
     <t>PRALKA BOSCH WAN 2017GPL</t>
   </si>
   <si>
@@ -626,12 +624,12 @@
     <t>PRALKA BOSCH WAN 2418GPL</t>
   </si>
   <si>
-    <t>PRALKA BOSCH WAN 2427GPL</t>
-  </si>
-  <si>
     <t>PRALKA BOSCH WAN242G9PL</t>
   </si>
   <si>
+    <t>PRALKA BOSCH WAU 24T0GPL</t>
+  </si>
+  <si>
     <t>PRALKA BOSCH WAV28M92PL</t>
   </si>
   <si>
@@ -641,7 +639,7 @@
     <t>PRALKA GORENJE WNHEI74SAS/PL</t>
   </si>
   <si>
-    <t>PRALKA INDESIT BTWL50300PL/N</t>
+    <t>PRALKA INDESIT MTWE 71252 WK PL</t>
   </si>
   <si>
     <t>PRALKA INDESIT MTWSA 61051 W PL</t>
@@ -653,21 +651,27 @@
     <t>PRALKA SAMSUNG WF60F4E0W0W (ZEW)</t>
   </si>
   <si>
-    <t>PRALKA SAMSUNG WW 80TA026TE</t>
-  </si>
-  <si>
-    <t>PRALKA SAMSUNG WW60A3120BE</t>
-  </si>
-  <si>
-    <t>PRALKA SAMSUNG WW60A3120WH</t>
-  </si>
-  <si>
-    <t>PRALKA SAMSUNG WW70TA026AE</t>
+    <t>PRALKA SAMSUNG WW70T302MWW</t>
+  </si>
+  <si>
+    <t>PRALKA SAMSUNG WW70TA026AH</t>
+  </si>
+  <si>
+    <t>PRALKA SAMSUNG WW70TA026TH</t>
   </si>
   <si>
     <t>PRALKA SAMSUNG WW70TA026TT</t>
   </si>
   <si>
+    <t>PRALKA SAMSUNG WW80TA026AH</t>
+  </si>
+  <si>
+    <t>PRALKA SAMSUNG WW8NK62E0RW</t>
+  </si>
+  <si>
+    <t>PRALKA SAMSUNG WW90T4020CE</t>
+  </si>
+  <si>
     <t>PRALKA SIEMENS WM14N28XPL</t>
   </si>
   <si>
@@ -680,60 +684,118 @@
     <t>PRALKA WHIRLPOOL FFL 7238 B PL</t>
   </si>
   <si>
-    <t>PRALKA WHIRLPOOL NTDLR 6030S PL-N</t>
+    <t>PRALKA WHIRLPOOL FFL6038BPL</t>
   </si>
   <si>
     <t>PRALKA WHIRLPOOL NTDLR 7220SS PL-N</t>
   </si>
   <si>
+    <t>PRALKA WHIRLPOOL NTDLR6040S PL/N</t>
+  </si>
+  <si>
     <t>PRALKA WHIRLPOOL TDLR6040L</t>
   </si>
   <si>
+    <t>PRALKA WHIRLPOOL TDLR6040S PL/N</t>
+  </si>
+  <si>
+    <t>PRALKA WHIRLPOOL WMWG81484PL</t>
+  </si>
+  <si>
     <t>PRALKO SUSZARKA BOSCH WNA 13401PL</t>
   </si>
   <si>
+    <t>PRALKO SUSZARKA BOSCH WNA 14402PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRALKO SUSZARKA SAMSUNG WD8NK52E3AW
+</t>
+  </si>
+  <si>
     <t>RĘCZNIK BOSCH PROMOCJA</t>
   </si>
   <si>
+    <t>ROBOT BOSCH MUM4427</t>
+  </si>
+  <si>
+    <t>ROBOT BOSCH MUM4880</t>
+  </si>
+  <si>
     <t>ROBOT SPRZĄTAJĄCY XIAOMI MI ROBOT VACUUM-MOP PRO B</t>
   </si>
   <si>
     <t>SAMSUNG LODÓWKA RSH5ZLBG1</t>
   </si>
   <si>
-    <t>SOUNDBAR HISENSE HS205</t>
-  </si>
-  <si>
     <t>SOUNDBAR SAMSUNG HW-Q600B/EN</t>
   </si>
   <si>
+    <t>STRZYŻARKA PHILIPS HC 3505/15</t>
+  </si>
+  <si>
+    <t>STRZYŻARKA PHILIPS HC 3510/15</t>
+  </si>
+  <si>
+    <t>STRZYŻARKA PHILIPS HC 3525/15</t>
+  </si>
+  <si>
     <t>STRZYŻARKA PHILIPS QC5115/15</t>
   </si>
   <si>
     <t>SUSZARKA BOSCH WTH 850S7PL</t>
   </si>
   <si>
-    <t>SUSZARKA BOSCH WTR 87TW0PL</t>
-  </si>
-  <si>
-    <t>SUSZARKA SAMSUNG DV80TA020AE</t>
+    <t>SUSZARKA BOSCH WTH85V0GPL</t>
+  </si>
+  <si>
+    <t>SUSZARKA BOSCH WTM 8528 FPL</t>
+  </si>
+  <si>
+    <t>SUSZARKA DO GRZYBÓW CONCEPT SO 1001</t>
+  </si>
+  <si>
+    <t>SUSZARKA DO GRZYBÓW CONCEPT SO 1061</t>
+  </si>
+  <si>
+    <t>SUSZARKA DO GRZYBÓW MPM MSG06</t>
+  </si>
+  <si>
+    <t>SUSZARKA GORENJE DS92ILS</t>
+  </si>
+  <si>
+    <t>SUSZARKA PHILIPS BHD340/10</t>
+  </si>
+  <si>
+    <t>SUSZARKA SAMSUNG DV80T5220AE</t>
   </si>
   <si>
     <t>SUSZARKA SAMSUNG DV90T5240AT</t>
   </si>
   <si>
+    <t>SUSZARKA SIEMENS WT45HV0EPL</t>
+  </si>
+  <si>
     <t>SUSZARKA SIEMENS WT47RTE0PL</t>
   </si>
   <si>
     <t>SUSZARKA WHIRLPOOL FFTM228X2BPL</t>
   </si>
   <si>
-    <t>SUSZARKA WHIRLPOOL FFTM229X2PL</t>
+    <t>SUSZARKA WHIRLPOOL FFTM229X2BPL</t>
+  </si>
+  <si>
+    <t>SUSZARKA WHIRLPOOL FFTM229X2WSPL</t>
   </si>
   <si>
     <t>SYROP SODASTREAM PEPSI</t>
   </si>
   <si>
+    <t>SZCZOTKA DO SIERŚCI GORENJE VCA3235TB</t>
+  </si>
+  <si>
+    <t>ŚRODEK DO SZKŁA KARCHER RM503 6.295-840.0</t>
+  </si>
+  <si>
     <t>TELEWIZOR HISENSE 32A4BG</t>
   </si>
   <si>
@@ -755,86 +817,58 @@
     <t>TELEWIZOR HISENSE 50E7HQ QLED</t>
   </si>
   <si>
+    <t>TELEWIZOR HISENSE 55A6BG</t>
+  </si>
+  <si>
     <t>TELEWIZOR HISENSE 55E76GQ QLED</t>
   </si>
   <si>
     <t>TELEWIZOR HISENSE 58A6BG</t>
   </si>
   <si>
-    <t>TELEWIZOR HISENSE 65A6BG</t>
-  </si>
-  <si>
-    <t>TELEWIZOR LG 43UP77003LB</t>
-  </si>
-  <si>
-    <t>TELEWIZOR LG 55UP75003LF</t>
-  </si>
-  <si>
     <t>TELEWIZOR LG 55UP80003LR</t>
   </si>
   <si>
     <t>TELEWIZOR PHILIPS 32PHS5507/12</t>
   </si>
   <si>
-    <t>TELEWIZOR PHILIPS 39PHS6707/12</t>
-  </si>
-  <si>
     <t>TELEWIZOR PHILIPS 43PFS5505/12</t>
   </si>
   <si>
-    <t>TELEWIZOR SAMSUNG 50BU8002KXXH</t>
-  </si>
-  <si>
-    <t>TELEWIZOR SAMSUNG QE43Q60BAUXXH</t>
-  </si>
-  <si>
-    <t>TELEWIZOR SAMSUNG QE50Q67AAU</t>
-  </si>
-  <si>
-    <t>TELEWIZOR SAMSUNG QE55Q67AAU</t>
-  </si>
-  <si>
     <t>TELEWIZOR SAMSUNG UE32T4302AKXXH</t>
   </si>
   <si>
     <t>TELEWIZOR SAMSUNG UE50AU7172UXXH</t>
   </si>
   <si>
-    <t>TELEWIZOR SAMSUNG UE50AU7192</t>
-  </si>
-  <si>
-    <t>TELEWIZOR SAMSUNG UE65AU7172UXXH</t>
-  </si>
-  <si>
-    <t>TOSTER GORENJE T850BK</t>
-  </si>
-  <si>
-    <t>WHIRLPOOL MIKROFALA AMW730IX</t>
+    <t>TERMOWENTYLATOR NOVEEN FH03</t>
+  </si>
+  <si>
+    <t>TERMOWENTYLATOR RAVANSON FH-101</t>
+  </si>
+  <si>
+    <t>TERMOWENTYLATOR RAVANSON FH-105</t>
+  </si>
+  <si>
+    <t>TERMOWENTYLATOR RAVANSON FH-105B</t>
+  </si>
+  <si>
+    <t>TERMOWENTYLATOR RAVANSON FH-2000RB</t>
+  </si>
+  <si>
+    <t>UCHWYT DO TV CAVION TV LCD/LED24-60</t>
   </si>
   <si>
     <t>WHIRLPOOL MIKROFALA AMW730WH</t>
   </si>
   <si>
-    <t>WORKI DO ODKURZACZA GORENJE GB2MBAS</t>
-  </si>
-  <si>
     <t>WORKI DO ODKURZACZA GORENJE GB2PBU</t>
   </si>
   <si>
-    <t xml:space="preserve">WORKI DO ODKURZACZA KARCHER 2.863-006.0 WD4
-</t>
-  </si>
-  <si>
-    <t>WYPIEKACZ DO CHLEBA GORENJE BM1210BK</t>
-  </si>
-  <si>
     <t>ZAMRAŻARKA WHIRLPOOL UW8F2YWBIF2</t>
   </si>
   <si>
-    <t>ZAMRAŻARKA WHIRLPOOL UW8F2YXBIF2</t>
-  </si>
-  <si>
-    <t>ZAMRAŻARKA WHIRLPOOL W55ZM111W</t>
+    <t>ZAMRAŻARKA WHIRLPOOL WHS 2121</t>
   </si>
   <si>
     <t>ZAMRAŻARKA WHIRPOOL AFB 18401</t>
@@ -852,12 +886,24 @@
     <t>ZMYWARKA  WHIRLPOOL WIP 4033PLE</t>
   </si>
   <si>
+    <t>ZMYWARKA BOSCH SMS2ITI11E</t>
+  </si>
+  <si>
+    <t>ZMYWARKA BOSCH SMS4EVI14E</t>
+  </si>
+  <si>
     <t>ZMYWARKA BOSCH SMV 24AX02E</t>
   </si>
   <si>
+    <t>ZMYWARKA BOSCH SMV 4ITX11E</t>
+  </si>
+  <si>
     <t>ZMYWARKA BOSCH SMV24AX00E</t>
   </si>
   <si>
+    <t>ZMYWARKA BOSCH SMV25AX00E</t>
+  </si>
+  <si>
     <t>ZMYWARKA BOSCH SMV25EX00E</t>
   </si>
   <si>
@@ -870,52 +916,64 @@
     <t>ZMYWARKA BOSCH SMV4HVX31E</t>
   </si>
   <si>
+    <t>ZMYWARKA BOSCH SPV 2IKX10E</t>
+  </si>
+  <si>
     <t>ZMYWARKA BOSCH SPV2HKX41E</t>
   </si>
   <si>
+    <t>ZMYWARKA BOSCH SPV4XMX20E</t>
+  </si>
+  <si>
     <t>ZMYWARKA BOSCH SPV4XMX28E</t>
   </si>
   <si>
-    <t>ZMYWARKA BOSCH SRV2IKX10E</t>
-  </si>
-  <si>
     <t>ZMYWARKA BOSCH SRV4HKX53E</t>
   </si>
   <si>
     <t>ZMYWARKA GORENJE GV520E10</t>
   </si>
   <si>
-    <t>ZMYWARKA GORENJE GV561D10</t>
-  </si>
-  <si>
     <t>ZMYWARKA INDESIT DSIE2B10</t>
   </si>
   <si>
-    <t>ZMYWARKA SAMSUNG DW 50R4040BB</t>
-  </si>
-  <si>
-    <t>ZMYWARKA SAMSUNG DW50R4050FS</t>
-  </si>
-  <si>
-    <t>ZMYWARKA SIEMENS SN 61HX08VE</t>
-  </si>
-  <si>
     <t>ZMYWARKA SIEMENS SN615X00AE</t>
   </si>
   <si>
     <t>ZMYWARKA SIEMENS SN615X03EE</t>
   </si>
   <si>
+    <t>ZMYWARKA SIEMENS SN63HX36TE</t>
+  </si>
+  <si>
     <t>ZMYWARKA WHIRLPOOL OWFC 3C26</t>
   </si>
   <si>
     <t>ZMYWARKA WHIRLPOOL WFE 2B19</t>
   </si>
   <si>
-    <t>ZMYWARKA WHIRLPOOL WFE 2B19 X</t>
-  </si>
-  <si>
-    <t>ZMYWARKA WHIRLPOOL WSIC3M17</t>
+    <t>ZMYWARKA WHIRLPOOL WSIE 2B19C</t>
+  </si>
+  <si>
+    <t>ŻELAZKO PHILIPS DST 3030/70</t>
+  </si>
+  <si>
+    <t>ŻELAZKO PHILIPS DST5030/20</t>
+  </si>
+  <si>
+    <t>ŻELAZKO PHILIPS GC 4541/20</t>
+  </si>
+  <si>
+    <t>ŻELAZKO PHILIPS GC1742/40</t>
+  </si>
+  <si>
+    <t>ŻELAZKO PHILIPS GC4535/20</t>
+  </si>
+  <si>
+    <t>ŻELAZKO PHILIPS GC4901/10</t>
+  </si>
+  <si>
+    <t>ŻERLAZKO PHILIPS GC 4532/20</t>
   </si>
   <si>
     <t>Stan</t>
@@ -927,6 +985,9 @@
     <t>Kraj pochodzenia - nazwa</t>
   </si>
   <si>
+    <t>Słowenia</t>
+  </si>
+  <si>
     <t>Chiny</t>
   </si>
   <si>
@@ -942,24 +1003,18 @@
     <t>Włochy</t>
   </si>
   <si>
-    <t>Malesia</t>
+    <t>Polska</t>
   </si>
   <si>
     <t>Wielka Brytania</t>
   </si>
   <si>
-    <t>Słowenia</t>
-  </si>
-  <si>
     <t>Wietnam</t>
   </si>
   <si>
     <t>Niemcy</t>
   </si>
   <si>
-    <t>Polska</t>
-  </si>
-  <si>
     <t>Hiszpania</t>
   </si>
   <si>
@@ -972,6 +1027,12 @@
     <t>Identyfikator</t>
   </si>
   <si>
+    <t>GRZEJNIK OLEJOWY ARDES AR4R07S</t>
+  </si>
+  <si>
+    <t>GRZEJNIK MAESTRO MR950-9</t>
+  </si>
+  <si>
     <t>GRZEJNIK OLEJOWY RAVANSON OH-09</t>
   </si>
   <si>
@@ -984,15 +1045,6 @@
     <t>MIKROFALÓWKA  SAMSUNG ME83X</t>
   </si>
   <si>
-    <t>MWP103B WHIRLPOOL MIKROFALÓWKA</t>
-  </si>
-  <si>
-    <t>MIKROFALÓWKA WHIRPOOL  AMW4900IX</t>
-  </si>
-  <si>
-    <t>MIKSER BOSCH MFQ 3530  450W/5STOPNI</t>
-  </si>
-  <si>
     <t>MŁYNEK DO KAWY TSM 6A013B</t>
   </si>
   <si>
@@ -1014,105 +1066,135 @@
     <t>ODKURZACZ KARCHER VC2</t>
   </si>
   <si>
-    <t>ODKURZACZ KARCHER WD3 V-17/4/20</t>
-  </si>
-  <si>
     <t>ODKURZACZ KARCHER WD4S V20/5/22</t>
   </si>
   <si>
     <t>OKAP FRANKE FTC 6032 GR/XS V2 SREBR</t>
   </si>
   <si>
-    <t>PAROWNICA KARCHER SC 2 EASYFIX</t>
-  </si>
-  <si>
     <t>PIEKANIK WHIRPOOL AKP 446 IX</t>
   </si>
   <si>
-    <t>PRALKO SUSZ WHIRLPOOL WDWG961484EU</t>
-  </si>
-  <si>
-    <t>PRALKA SAMSUNG WW80TA026TE</t>
+    <t>PŁTRA ELECTROLUX EHH 6240 ISK</t>
+  </si>
+  <si>
+    <t>PODKASZARKA KARCHER LTR 18-25 1.444</t>
+  </si>
+  <si>
+    <t>PRALKA BOSCH WAU24T0GPL</t>
   </si>
   <si>
     <t>PRALKO SUSZARKA BOSCH WNA13401PL</t>
   </si>
   <si>
+    <t>PRALKO SUSZ SAMSUNG WD8NK52E3AW</t>
+  </si>
+  <si>
     <t>ROBOT SPRZĄTAJĄCY XIAOMI MI ROBOT V</t>
   </si>
   <si>
-    <t xml:space="preserve">SOUNDBAR HISENSE HS205 </t>
+    <t>SUSZARKA DO GRZYBÓW CONCEPT SO1001</t>
+  </si>
+  <si>
+    <t>SUSZARKA DO GRZYBÓW CONCEPT SO1061</t>
   </si>
   <si>
     <t xml:space="preserve">SYROP SODASTREAM PEPSI </t>
   </si>
   <si>
-    <t>WORKI DO ODKURZACVZA GORENJE GB2MBA</t>
-  </si>
-  <si>
-    <t>WORKI DO ODKURZACZA KARCHER</t>
-  </si>
-  <si>
-    <t>WYPIEKACZ DO CHLEBA GORENJE BM1210B</t>
+    <t>SZCZOTKA DO SIERŚCI GORENJE VCA3235</t>
+  </si>
+  <si>
+    <t>ŚRODEK DO SZKŁA KARCHER RM503</t>
   </si>
   <si>
     <t>ZMYWARKA WHIRLPOOL WIC3C34PFES</t>
   </si>
   <si>
+    <t>BOSCH ZMYWARKA SMV25AX00E</t>
+  </si>
+  <si>
     <t>ZMYWARKA WHIRPOOL WFE 2B19</t>
   </si>
   <si>
-    <t>ZMYWARKA WHIRPOOL WFE 2B19 X</t>
-  </si>
-  <si>
     <t>Indeks</t>
   </si>
   <si>
     <t>KWT06POGRAPHITCHROMBATERI</t>
   </si>
   <si>
+    <t>MS6CA4120BLENDERBOSCH</t>
+  </si>
+  <si>
+    <t>MS6CA41H50 BOSCH BLENDER</t>
+  </si>
+  <si>
     <t>MSM66150 BOSCH BLENDER</t>
   </si>
   <si>
+    <t>BSHBLEMSM67140</t>
+  </si>
+  <si>
     <t>MSMP1000  BOSCH BLENDER</t>
   </si>
   <si>
+    <t>MSM26500 BOSCH BLENDER</t>
+  </si>
+  <si>
     <t>HBG635BS1 BOSCH PIEKARNIK</t>
   </si>
   <si>
+    <t>CZAJBOSC7604</t>
+  </si>
+  <si>
+    <t>TWK3A011 BOSCH CZAJNIK</t>
+  </si>
+  <si>
     <t>TWK3A014 BOSCH CZAJNIK</t>
   </si>
   <si>
     <t>BSH3A017</t>
   </si>
   <si>
+    <t>BSHCZATWK7601</t>
+  </si>
+  <si>
+    <t>TWK3P420 BOSCH CZAJNIK</t>
+  </si>
+  <si>
+    <t>TWK6A017 BOSCH CZAJNIK</t>
+  </si>
+  <si>
+    <t>K15DWW GORENJE CZAJNIK</t>
+  </si>
+  <si>
     <t>K17FEII GORENJE CZAJNIK</t>
   </si>
   <si>
-    <t>K17TRB GORENJE CZAJNIK</t>
-  </si>
-  <si>
-    <t>ECAM350.50B DELONGHI EKSP</t>
+    <t>KSK171BK KERNAU CZAJNIK</t>
   </si>
   <si>
     <t>TQ503R01 SIEMENS EKSPRES</t>
   </si>
   <si>
-    <t>FILTR KARCHER WD/SE 2.863</t>
+    <t>F2001IS FOGO GENERATOR</t>
   </si>
   <si>
     <t>TFB3302GRILLBOSCH</t>
   </si>
   <si>
+    <t>AR4R07S ARDES GRZEJNIK OL</t>
+  </si>
+  <si>
+    <t>MR950-9 MAESTRO GRZEJNIK</t>
+  </si>
+  <si>
     <t>GRAGRZ09</t>
   </si>
   <si>
     <t>HUAWEI Y3 SMARTFON</t>
   </si>
   <si>
-    <t>SC2 PAROWNICA KARCHER</t>
-  </si>
-  <si>
     <t>KLAWIATURA TRACER MAVERIC</t>
   </si>
   <si>
@@ -1122,16 +1204,13 @@
     <t>LUXKONCH-11</t>
   </si>
   <si>
-    <t>K535B GORENJE KUCHNIA</t>
-  </si>
-  <si>
     <t>FSE62120DW BEKO KUCHNIA</t>
   </si>
   <si>
     <t>FSE62120DX BEKO KUCHNIA</t>
   </si>
   <si>
-    <t>EC5111WG GORENJE KUCHNIA</t>
+    <t>EIT5355WPG GORENJE KUCHNI</t>
   </si>
   <si>
     <t>EIT6355XPDKUCHNIAGORENJE</t>
@@ -1140,30 +1219,12 @@
     <t>K634XH GORENJE KUCHNIA</t>
   </si>
   <si>
-    <t>K5340SHKUCHNIAGORENJE</t>
-  </si>
-  <si>
     <t>K5341SJKUCHNIA GORENJE</t>
   </si>
   <si>
     <t>K5341WJKUCHNIA GORENJE</t>
   </si>
   <si>
-    <t>K5351SH GORENJE KUCHNIA</t>
-  </si>
-  <si>
-    <t>K5351WHKUCHNIAGORENJE</t>
-  </si>
-  <si>
-    <t>K5352SHKUCHNIAGORENJE</t>
-  </si>
-  <si>
-    <t>K634WA GORENJE KUCHNIA</t>
-  </si>
-  <si>
-    <t>K634WH GORENJE KUCHNIA</t>
-  </si>
-  <si>
     <t>LI-35P2N KUCHNIA INDUKCYJ</t>
   </si>
   <si>
@@ -1194,31 +1255,34 @@
     <t>KGN33NLEB BOSCH LODÓWKA</t>
   </si>
   <si>
+    <t>KGN33NWEB BOSCH LODÓWKA</t>
+  </si>
+  <si>
     <t>CCE3T618FW CANDY LODÓWKA</t>
   </si>
   <si>
     <t>NRK6181PW4 GORENJE LODÓWK</t>
   </si>
   <si>
-    <t>NRK6191ES4 GORENJE LODÓWK</t>
-  </si>
-  <si>
     <t>NRK6191EW4 GORENJE LODÓWK</t>
   </si>
   <si>
-    <t>NRK6202AW4 LODÓWKA GORENJ</t>
-  </si>
-  <si>
-    <t>NRM8182MX GORENJE LODÓWKA</t>
-  </si>
-  <si>
     <t>RK4181PS4 GORENJE LODÓWKA</t>
   </si>
   <si>
+    <t>RK4181PW4 GORENJE LODÓWKA</t>
+  </si>
+  <si>
     <t>KFRC15153.1W KERNAU LODÓW</t>
   </si>
   <si>
-    <t>GBB61BLHEC LG LODÓWKA</t>
+    <t>GBB61DSHMN LG LODÓWKA</t>
+  </si>
+  <si>
+    <t>GBB72MCDMN LG LODÓWKA</t>
+  </si>
+  <si>
+    <t>GBB72PZUGN LG LODÓWKA</t>
   </si>
   <si>
     <t>BRB26600FWWLODWKASAMSUNG</t>
@@ -1227,13 +1291,16 @@
     <t>BRB26615FWWLODÓWKASAMSUNG</t>
   </si>
   <si>
+    <t>BRB26615LODÓWKSAMSUNG</t>
+  </si>
+  <si>
     <t>BRB26705FWW SAMSUNG LODÓW</t>
   </si>
   <si>
-    <t>BRB30602FWW SAMSUNG LODÓW</t>
-  </si>
-  <si>
-    <t>RB34T600DSA SAMSUNG LODÓW</t>
+    <t>BRB30705DWW SAMSUNG LODÓW</t>
+  </si>
+  <si>
+    <t>RB34T674EB1 SAMSUNG LODÓW</t>
   </si>
   <si>
     <t>RB38T603FSA SAMSUNG LODÓW</t>
@@ -1245,22 +1312,16 @@
     <t>RB38T675EEL SAMSUNG LODÓW</t>
   </si>
   <si>
-    <t>RB34T600EBN SAMSUNG LODÓW</t>
-  </si>
-  <si>
     <t>RB34T600EWW LODÓWKA SAMSU</t>
   </si>
   <si>
-    <t>34T600FWW SAMSUNG LODÓWKA</t>
-  </si>
-  <si>
     <t>RB34T601FS9 LODÓWKA SAMSU</t>
   </si>
   <si>
-    <t>RB38T600ESA SAMSUNG LODÓW</t>
-  </si>
-  <si>
-    <t>RB38T674EB1 SAMSUNG LODÓW</t>
+    <t>RB38T600EB1 SAMSUNG LODÓW</t>
+  </si>
+  <si>
+    <t>RB38T600FSALODÓWKASAMSUNG</t>
   </si>
   <si>
     <t>RS50N3913BC SAMSUNG LODÓK</t>
@@ -1269,49 +1330,37 @@
     <t>KG49NXXEA SIEMENS LODÓWKA</t>
   </si>
   <si>
-    <t>GR-RB500WE-PMJ LODÓWKA TO</t>
-  </si>
-  <si>
     <t>WHILODARG590</t>
   </si>
   <si>
-    <t>ART65011 WHIRLPOOL LODÓWK</t>
+    <t>ART6502 WHIRLPOLL LODOWKA</t>
   </si>
   <si>
     <t>W55VM1110W1 LODÓWKA WHIRL</t>
   </si>
   <si>
-    <t>W5711EW WHIRLPOOL LODÓWKA</t>
+    <t>W5911EW WHIRLPOOL LODÓWKA</t>
   </si>
   <si>
     <t>WB70E973X WHIRLPOOL LODÓW</t>
   </si>
   <si>
-    <t>ART9811/SFLODWHIR</t>
-  </si>
-  <si>
     <t>SP40801LODÓWKAWHIRPOOL</t>
   </si>
   <si>
     <t>W5811EWLODÓWKAWHIRPOOL</t>
   </si>
   <si>
-    <t>W5811EOXLODÓWKAWHIRPOOL</t>
-  </si>
-  <si>
-    <t>W5911EOXLODÓWKAWHIRPOLL</t>
-  </si>
-  <si>
-    <t>BEL623MB3 BOSCH MIKROFALA</t>
-  </si>
-  <si>
-    <t>MO20E1B GORENJE MIKROFALA</t>
-  </si>
-  <si>
-    <t>MS23F301 TAS MIKROFALASAM</t>
-  </si>
-  <si>
-    <t>MS22M8054AK SAMSUNG MIKRO</t>
+    <t>BSHROB4875EU</t>
+  </si>
+  <si>
+    <t>MMWPL3003 BOSCH MASZYNKA</t>
+  </si>
+  <si>
+    <t>MO20A3X GORENJE MIKROFALÓ</t>
+  </si>
+  <si>
+    <t>NQ50A6139BK SAMSUNG MIKRO</t>
   </si>
   <si>
     <t>W7MD440NWHIRLPOOL MIKROFA</t>
@@ -1320,16 +1369,7 @@
     <t>W9MD260IXL WHIRLPOOL MIKR</t>
   </si>
   <si>
-    <t>MWP101SBMIKROFALAWHIRPOOL</t>
-  </si>
-  <si>
-    <t>BFL550MB0 BOSCH MIKROFALÓ</t>
-  </si>
-  <si>
-    <t>BFR634GB1MIKROFALABOSCH</t>
-  </si>
-  <si>
-    <t>BM201AG1BG GORENJE MIKROF</t>
+    <t>BFR634GW1 BOSCH MIKROFALA</t>
   </si>
   <si>
     <t>BMI201AG1X GORENJE MIKROF</t>
@@ -1338,15 +1378,6 @@
     <t>BM235CLBMIKROFALGORENJE</t>
   </si>
   <si>
-    <t>BM235CLI GORENJE MIKROFAL</t>
-  </si>
-  <si>
-    <t>BM235SYW GORENJE MIKROFAL</t>
-  </si>
-  <si>
-    <t>MO17E1S GORENJE MIKROFALÓ</t>
-  </si>
-  <si>
     <t>MO20A3BMIKROFALAGORENJE</t>
   </si>
   <si>
@@ -1365,19 +1396,16 @@
     <t>AMW734IX WHIRLPOOL MIKROF</t>
   </si>
   <si>
-    <t>MWP103B WHIRLPOOL MIKROFA</t>
+    <t>MWP103W WHIRLPOOL MIKROFA</t>
   </si>
   <si>
     <t>WMF200GNB. WHIRLPOOL MIKR</t>
   </si>
   <si>
-    <t>AMW490MIKROFALAWHIRPOOL</t>
-  </si>
-  <si>
     <t>MFQ3555MIKSERBOSCH</t>
   </si>
   <si>
-    <t>ZELMIKMFQ40303</t>
+    <t>MFQ36440 BOSCH MIKSER</t>
   </si>
   <si>
     <t>MFQ2600W BOSCH MIKSER</t>
@@ -1386,19 +1414,10 @@
     <t>MFQ3561WMIKSERBOSCH</t>
   </si>
   <si>
-    <t>BSHMIKMFQ36460</t>
-  </si>
-  <si>
-    <t>BSHMIK4020MFQ</t>
-  </si>
-  <si>
     <t>MFQ40304MIKSERBOSCH</t>
   </si>
   <si>
-    <t>MFQ4730 BOSCH MIKSER</t>
-  </si>
-  <si>
-    <t>BSHROB3530</t>
+    <t>M460CDC GORENJE MIKSER</t>
   </si>
   <si>
     <t>TSM6A013BMŁYNEKDOKAWY</t>
@@ -1437,48 +1456,48 @@
     <t>EEG43WR ELECTROLUX ODKURZ</t>
   </si>
   <si>
-    <t>SVC252GFA GORENJE ODKURZA</t>
-  </si>
-  <si>
     <t>VC2 KARCHER ODKURZACZ</t>
   </si>
   <si>
-    <t>WD3 V-17/4/20 KARCHER ODK</t>
-  </si>
-  <si>
     <t>WD4S KARCHER ODKURZACZ</t>
   </si>
   <si>
     <t>FC6408/01ODKURZACZPHILIPS</t>
   </si>
   <si>
-    <t>FC8240/09 PHILIPS ODKURZA</t>
+    <t>FC8241/09ODKURZACZPHILIPS</t>
   </si>
   <si>
     <t>XB2122/09 PHILIPS ODKURZA</t>
   </si>
   <si>
+    <t>SVC180FWODKURZACZGORENJE</t>
+  </si>
+  <si>
     <t>VC07M25E0WR SAMSUNG ODKUR</t>
   </si>
   <si>
     <t>VCC45W03S36 SAMSUNG ODKUR</t>
   </si>
   <si>
+    <t>OWC4241BO AMICA OKAP</t>
+  </si>
+  <si>
     <t>FRAOKAP6032</t>
   </si>
   <si>
+    <t>TH62E4BG GORENJE OKAP</t>
+  </si>
+  <si>
+    <t>KCH0140X KERNAU OKAP</t>
+  </si>
+  <si>
     <t>NK24M1030IS SAMSUNG OKAP</t>
   </si>
   <si>
-    <t>SC 2 EASYFIX KARCHER PARO</t>
-  </si>
-  <si>
     <t>BIM36300XCS BEKO PIEKARNI</t>
   </si>
   <si>
-    <t>HAF113ES1 BOSCH PIEKARNIK</t>
-  </si>
-  <si>
     <t>HBA534EBOPIEKARNIK BOSCH</t>
   </si>
   <si>
@@ -1488,13 +1507,19 @@
     <t>HBF134ES1 BOSCH PIEKARNIK</t>
   </si>
   <si>
+    <t>HBG2780S0 BOSCH PIEKARNIK</t>
+  </si>
+  <si>
     <t>HBG5370BOPIEKARNBOSCH</t>
   </si>
   <si>
-    <t>HBG635BB1PIEKARNIKBOSCH</t>
-  </si>
-  <si>
-    <t>EOF3H40X ELECTROLUX PIEKA</t>
+    <t>ELEPIEEZB3410AOX</t>
+  </si>
+  <si>
+    <t>ELEPIEKEZB3410</t>
+  </si>
+  <si>
+    <t>BO6725E02BG GORENJE PIEKA</t>
   </si>
   <si>
     <t>BO6735E02X GORENJE PIEKAR</t>
@@ -1503,13 +1528,19 @@
     <t>BO6735E05B GORENJE PIEKAR</t>
   </si>
   <si>
-    <t>BO76SYWPIEKARNIKGORENJE</t>
-  </si>
-  <si>
-    <t>BOS6737E20FBG GORENJE PIE</t>
-  </si>
-  <si>
-    <t>NQ50H5537PIEKARNIKSAMSUNG</t>
+    <t>BOSB6737E06X GORENJE PIEK</t>
+  </si>
+  <si>
+    <t>BPSX6747A05BG GORENJE PIE</t>
+  </si>
+  <si>
+    <t>BSA6737ORAB GORENJE PIEKA</t>
+  </si>
+  <si>
+    <t>BSA6737ORAW GORENJE PIEKA</t>
+  </si>
+  <si>
+    <t>NQ50A6539BK SAMSUNG PIEKA</t>
   </si>
   <si>
     <t>NV66M3531BS SAMSUNG PIEKA</t>
@@ -1521,21 +1552,15 @@
     <t>NV70K2340RM SAMSUNG PIEKA</t>
   </si>
   <si>
-    <t>NV75K5541RB SAMSUNG PIEKA</t>
+    <t>HB634GBS1PIEKARNIK SIEMEN</t>
   </si>
   <si>
     <t>AKP446IXPIEKARNIKWHIRPOOL</t>
   </si>
   <si>
-    <t>AKP782IXPIEKARNIKWHIRPOOL</t>
-  </si>
-  <si>
     <t>AKP785IXPIEKARNIKWHIRPOOL</t>
   </si>
   <si>
-    <t>AKZ96230PIEKARNIKWHIRPOOL</t>
-  </si>
-  <si>
     <t>AKZ96230IXPIEKARNIKWHIRPO</t>
   </si>
   <si>
@@ -1545,7 +1570,7 @@
     <t>AKZ96230WH WHIRLPOOL PIEK</t>
   </si>
   <si>
-    <t>AKZ96290NB WHIRLPOOL PIEK</t>
+    <t>AKZ96240NB WHIRLPOOL PIEK</t>
   </si>
   <si>
     <t>AKZM8420NB WHIRLPOOL PIEK</t>
@@ -1554,9 +1579,15 @@
     <t>W9OP24S2H WHIRLPOOL PIEKA</t>
   </si>
   <si>
+    <t>AKP738NBPIEKARNIKWHIRPOOL</t>
+  </si>
+  <si>
     <t>AKZM8480NB PIEKARNIK WHIR</t>
   </si>
   <si>
+    <t>BO6737E02BG GORENJE PIEKA</t>
+  </si>
+  <si>
     <t>NA64H3000AKPŁYTASAMSUN</t>
   </si>
   <si>
@@ -1566,22 +1597,55 @@
     <t>PCP6A5B90 BOSCH PŁYTA</t>
   </si>
   <si>
+    <t>PKE645BB2E BOSCH PŁYTA</t>
+  </si>
+  <si>
+    <t>PPP6AB90PŁYTABOSCH</t>
+  </si>
+  <si>
     <t>PUE63RBB5E BOSCH PŁYTA</t>
   </si>
   <si>
     <t>PUG 611AA5E BOSCH PŁYTA</t>
   </si>
   <si>
-    <t>ECT643BCSC GORENJE PŁYTA</t>
-  </si>
-  <si>
-    <t>EGG6407K ELECTROLUX PŁYTA</t>
+    <t>PVS61RBB5E BOSCH PŁYTA</t>
+  </si>
+  <si>
+    <t>ELEPŁY16240XK</t>
+  </si>
+  <si>
+    <t>ELEPLYEHF46547XK</t>
+  </si>
+  <si>
+    <t>ELEPŁYEHH6340ISK</t>
+  </si>
+  <si>
+    <t>ECT641BCSC GORENJE PŁYTA</t>
+  </si>
+  <si>
+    <t>G642ABPŁYTA GORENJE</t>
   </si>
   <si>
     <t>GTW641EB GORENJE PŁYTA</t>
   </si>
   <si>
-    <t>IT645BCSC GORENJE PŁYTA</t>
+    <t>GTW642AXW GORENJE PŁYTA</t>
+  </si>
+  <si>
+    <t>GW642ABX GORENJE PŁYTA</t>
+  </si>
+  <si>
+    <t>IT64ASCPŁYTAGORENJE</t>
+  </si>
+  <si>
+    <t>IT640BSCPŁYTAGORENJE</t>
+  </si>
+  <si>
+    <t>IT641BSC7 GORENJE PŁYTA</t>
+  </si>
+  <si>
+    <t>IT643BSC7 GORENJE PŁYTA</t>
   </si>
   <si>
     <t>KIH64.2 KERNAU PŁYTA INDU</t>
@@ -1590,21 +1654,15 @@
     <t>NA64H3031PŁYTASAMSUNG</t>
   </si>
   <si>
+    <t>NA64H3030BKPŁYTASAMSUNG</t>
+  </si>
+  <si>
     <t>NZ64H37075K SAMSUNG PŁYTA</t>
   </si>
   <si>
-    <t>NA64H3030AS/O1</t>
-  </si>
-  <si>
     <t>ED631BSB5PŁYTA SIEMENS</t>
   </si>
   <si>
-    <t>AKR 361 IX WHIRLPOOL PŁYT</t>
-  </si>
-  <si>
-    <t>AKT616NB WHIRLPOOL PŁYTA</t>
-  </si>
-  <si>
     <t>AKT801NE WHIRLPOOL PŁYTA</t>
   </si>
   <si>
@@ -1623,33 +1681,24 @@
     <t>AKTL629WH PŁYTA WHIRLPOOL</t>
   </si>
   <si>
-    <t>WBB3960BF WHIRLPOOL PŁYTA</t>
-  </si>
-  <si>
-    <t>WLB3360NE WHIRLPOOL PŁYTA</t>
-  </si>
-  <si>
-    <t>WLB6860NES WHIRLPOOL PŁYT</t>
+    <t>AKWL628IXL WHIRLPOOL PŁYT</t>
+  </si>
+  <si>
+    <t>WSQ4860NE WHIRLPOOL PŁYTA</t>
   </si>
   <si>
     <t>WSQ2160NE WHIRLPOOL PŁYTA</t>
   </si>
   <si>
-    <t>WSS4060BF WHIRLPOOL PŁYTA</t>
-  </si>
-  <si>
-    <t>WDWG961484EU WHIRLPOOL PR</t>
-  </si>
-  <si>
-    <t>AWUE6511BWW3 BEKO PRALKA</t>
+    <t>SMO658CPŁYTAWHIRPOOL</t>
+  </si>
+  <si>
+    <t>LTR18-25 PODKASZARKA KARC</t>
   </si>
   <si>
     <t>WAJ2006APLPRALKABOSCH</t>
   </si>
   <si>
-    <t>WAJ2406SPL BOSCH PRALKA</t>
-  </si>
-  <si>
     <t>WAN2017GPLPRALKABOSCH</t>
   </si>
   <si>
@@ -1659,12 +1708,12 @@
     <t>WAN2418GPL BOSCH PRALKA</t>
   </si>
   <si>
-    <t>WAN2427GPL BOSCH PRALKA</t>
-  </si>
-  <si>
     <t>WAN242G9PL BOSCH PRALKA</t>
   </si>
   <si>
+    <t>WAU24T0GPL BOSCH PRALKA</t>
+  </si>
+  <si>
     <t>WAV28M92PL BOSCH PRALKA</t>
   </si>
   <si>
@@ -1674,7 +1723,7 @@
     <t>WNHEI74SAS/PL GORENJE PRA</t>
   </si>
   <si>
-    <t>BTWL50300PL/N INDESIT PRA</t>
+    <t>MTWE71252WKPL INDESIT PRA</t>
   </si>
   <si>
     <t>MTWSA61051W INDESIT PRALK</t>
@@ -1686,21 +1735,27 @@
     <t>GLOZEPRASAMWWF60F4E0W0W</t>
   </si>
   <si>
-    <t>WW80TA026TE SAMSUNG PRALK</t>
-  </si>
-  <si>
-    <t>WW60A3120BE SAMSUNG PRALK</t>
-  </si>
-  <si>
-    <t>WW60A31200WHPRALKASAMSUNG</t>
-  </si>
-  <si>
-    <t>WW70TA026AE SAMSUNG PRALK</t>
+    <t>WW70T302MWW SAMSUNG PRALK</t>
+  </si>
+  <si>
+    <t>WW70TA026AH SAMSUNG PRALK</t>
+  </si>
+  <si>
+    <t>WW70TA026TPRALKASAMSUNG</t>
   </si>
   <si>
     <t>WW70TA026TT SAMSUNG PRALK</t>
   </si>
   <si>
+    <t>WW80TA026AH SASMUNG PRALK</t>
+  </si>
+  <si>
+    <t>WW8NK62E0RW SAMSUNG PRALK</t>
+  </si>
+  <si>
+    <t>WW90T4020CE SAMSUNG PRALK</t>
+  </si>
+  <si>
     <t>WM14N28XPL SIEMENS PRALKA</t>
   </si>
   <si>
@@ -1713,52 +1768,109 @@
     <t>FFL7238BPRALKAWHIRLPOOL</t>
   </si>
   <si>
-    <t>NTDLR6030PL-N WHIRLPOOL P</t>
+    <t>FFL6038BPL PRALKA WHIRLPO</t>
   </si>
   <si>
     <t>NTDLR7220SS PL-N WHIRLPOO</t>
   </si>
   <si>
+    <t>NTDLR6040S WHIRLPOOL PRAL</t>
+  </si>
+  <si>
     <t>TDLR6040L PRALKA WHIRLPOO</t>
   </si>
   <si>
+    <t>TDLR6040S PL/N PRALKA WHI</t>
+  </si>
+  <si>
+    <t>WMWG81484 WHIRLPOOL PRALK</t>
+  </si>
+  <si>
     <t>WNA13401PL BOSCH PRALKO S</t>
   </si>
   <si>
+    <t>WNA14402PL BOSCH PRALKO S</t>
+  </si>
+  <si>
+    <t>WD8NK52E3AW SAMSUNG PRALK</t>
+  </si>
+  <si>
+    <t>MUM4427 BOSCH ROBOT</t>
+  </si>
+  <si>
+    <t>MUM4880 BOSCH ROBOT</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROBOT SPRZĄTAJĄCY XIAOMI </t>
   </si>
   <si>
     <t>RSH5ZLBG1</t>
   </si>
   <si>
-    <t>HS205 HISENSE SOUNDBAR</t>
-  </si>
-  <si>
     <t>HW-Q600B/EN SAMSUNG SOUND</t>
   </si>
   <si>
+    <t>HC3505STRZYŻARKAPHILIPS</t>
+  </si>
+  <si>
+    <t>HC3510/15 PHILIPS STRZYŻA</t>
+  </si>
+  <si>
+    <t>HC3525/15 PHILIPS STRZYŻA</t>
+  </si>
+  <si>
     <t>PHIMASZ5115</t>
   </si>
   <si>
     <t>WTH850S7PLSUSZARKABOSCH</t>
   </si>
   <si>
-    <t>WTR87TW0SUSZARKABOSCH</t>
-  </si>
-  <si>
-    <t>DV80TA020AE SAMSUNG SUSZA</t>
+    <t>WTH85V0GPL BOSCH SUSZARKA</t>
+  </si>
+  <si>
+    <t>WTM8528FPLSUSZARKABOSCH</t>
+  </si>
+  <si>
+    <t>SO1001 CONCEPT SUSZARKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO1061 CONCEPT SUSZARKA </t>
+  </si>
+  <si>
+    <t>MSG06 MPM SUSZARKA</t>
+  </si>
+  <si>
+    <t>DS92ILS GORENJE SUSZARKA</t>
+  </si>
+  <si>
+    <t>BHD340SUSZARKA PHILIPS</t>
+  </si>
+  <si>
+    <t>DV80T5220AE SAMSUNG SUSZA</t>
   </si>
   <si>
     <t>DV90T5240AT SAMSUNG SUSZA</t>
   </si>
   <si>
+    <t>WT45HV0EPL SIEMENS SUSZAR</t>
+  </si>
+  <si>
     <t>WT47RTE0PL SIEMENS SUSZAR</t>
   </si>
   <si>
     <t>FFTM228X2BSUSZARKAWHIRPOO</t>
   </si>
   <si>
-    <t>FFTM229X2PL WHIRLPOOL SUS</t>
+    <t>FFTM229X2BPL WHIRLPOOL S</t>
+  </si>
+  <si>
+    <t>FFTM229X2WSPL WHIRLPOOL S</t>
+  </si>
+  <si>
+    <t>VCA3235PHBSZCZOTKADOSIERG</t>
+  </si>
+  <si>
+    <t>RM503 KARCHER ŚRODEK DO S</t>
   </si>
   <si>
     <t>32A4BG HISENSE TELEWIZOR</t>
@@ -1779,85 +1891,58 @@
     <t>50E7HQ QLED HISENSE TV</t>
   </si>
   <si>
+    <t>55A6BG TELEWZIOR HISENSE</t>
+  </si>
+  <si>
     <t>55E76GQ HISENSE TELEWIZOR</t>
   </si>
   <si>
     <t>58A6BG HISENSE TELEWIZOR</t>
   </si>
   <si>
-    <t>65A6BG HISENSE TELEWIZOR</t>
-  </si>
-  <si>
-    <t>43UP77003LBTELEWIZORLG</t>
-  </si>
-  <si>
-    <t>55UP75003LF TELEWIZOR LG</t>
-  </si>
-  <si>
     <t>55UP80003LR LG TELEWIZOR</t>
   </si>
   <si>
     <t>32PHS5507/12 PHILIPS TV</t>
   </si>
   <si>
-    <t>39PHS6707/12 PHILIPS TELE</t>
-  </si>
-  <si>
     <t>43PFS5505/12 PHILIPS TV</t>
   </si>
   <si>
-    <t>50BU8002TELEWIZORSAMSUNG</t>
-  </si>
-  <si>
-    <t>43Q60AATELEWIZORSAMSUNG</t>
-  </si>
-  <si>
-    <t>QE50Q67AAU SAMSUNG TELEWI</t>
-  </si>
-  <si>
-    <t>QE55Q67AAU SAMSUNG TELEWI</t>
-  </si>
-  <si>
     <t>UE32T4302 SAMSUNG TV</t>
   </si>
   <si>
     <t>UE50AU7172UXXH SAMSUNG TV</t>
   </si>
   <si>
-    <t>UE50AU7192 SAMSUNG TELEWI</t>
-  </si>
-  <si>
-    <t>UE65AU7172UXXH SAMSUNG TV</t>
-  </si>
-  <si>
-    <t>T85022BK GORENJE TOSTER</t>
-  </si>
-  <si>
-    <t>AMW730IX WHIRLPOOL MIKROF</t>
+    <t>FH03 NOVEEN TERMOWENTYLAT</t>
+  </si>
+  <si>
+    <t>FH-101 RAVANSON TERMOWENT</t>
+  </si>
+  <si>
+    <t>FH-105 RAVANSON TERMOWENT</t>
+  </si>
+  <si>
+    <t>FH-105B RAVANSON TERMOWEN</t>
+  </si>
+  <si>
+    <t>FH-2000RB RAVANSON TERMOW</t>
+  </si>
+  <si>
+    <t>TV LCD/LED24-60 CAVION UC</t>
   </si>
   <si>
     <t>AMW730WH WHIRLPOOL MIKROF</t>
   </si>
   <si>
-    <t>GB2MBAS GORENJE WORKI</t>
-  </si>
-  <si>
     <t>GB2PBU GORENJE WORKI</t>
   </si>
   <si>
-    <t>WORKI DO ODKURZACZA KARCH</t>
-  </si>
-  <si>
-    <t>BM1210BK GORENJE WYPIEKAC</t>
-  </si>
-  <si>
     <t>UW8F2YWBIF2ZAMRAŻWHIRPOOL</t>
   </si>
   <si>
-    <t>UW8F2YXBIF2 WHIRLPOOL ZAM</t>
-  </si>
-  <si>
-    <t>W55ZM111W WHIRLPOOL ZAMRA</t>
+    <t>WHS2121ZAMRAŻARKAWHIRPOOL</t>
   </si>
   <si>
     <t>AFB1840ZAMRAZARKA WHIRPOO</t>
@@ -1875,12 +1960,24 @@
     <t>WIP4033PLE WHIRLPOOL ZMYW</t>
   </si>
   <si>
+    <t>SMS2ITI11EZMYWARKABOSCH</t>
+  </si>
+  <si>
+    <t>SMS4EVI14E BOSCH ZMYWARKA</t>
+  </si>
+  <si>
     <t>SMV24AX02ZMYWARKABOSCH</t>
   </si>
   <si>
+    <t>SMV4ITX11E BOSCH ZMYWARKA</t>
+  </si>
+  <si>
     <t>SMV24AX00 ZMYWARKA BOSCH</t>
   </si>
   <si>
+    <t>SMV25AX00E BOSCH ZMYWARKA</t>
+  </si>
+  <si>
     <t>SMV25EX00ZMYWARKABOSCH</t>
   </si>
   <si>
@@ -1893,52 +1990,64 @@
     <t>SMV4HVX31E BOSCH ZMYWARKA</t>
   </si>
   <si>
+    <t>SPV2IKX10E BOSCH ZMYWARKA</t>
+  </si>
+  <si>
     <t>SPV2HKX41E BOSCH ZMYWARKA</t>
   </si>
   <si>
+    <t>SPV4XMX20E BOSCH ZMYWARKA</t>
+  </si>
+  <si>
     <t>SPV4XMX28E BOSCH ZMYWARKA</t>
   </si>
   <si>
-    <t>SRV2IKX10EZMYWARKA BOSCH</t>
-  </si>
-  <si>
     <t>SRV4HKX53E BOSCH ZMYWARKA</t>
   </si>
   <si>
     <t>GV520E10S ZMYWARKA GORENJ</t>
   </si>
   <si>
-    <t>GV561D10  GORENJE ZMYWARK</t>
-  </si>
-  <si>
     <t>DSIE2B10 INDESIT ZMYWARKA</t>
   </si>
   <si>
-    <t>DW50R4040BBZMYWARKASAMSUN</t>
-  </si>
-  <si>
-    <t>DW50R4050FS SAMSUNG ZMYWA</t>
-  </si>
-  <si>
-    <t>SN61HX08VE SIEMENS ZMYWAR</t>
-  </si>
-  <si>
     <t>SN615X00E SIEMENS ZMYWARK</t>
   </si>
   <si>
     <t>SN615X03ZMYWARKASIEMENS</t>
   </si>
   <si>
+    <t>SN63HX36TE SIEMENS ZMYWAR</t>
+  </si>
+  <si>
     <t>OWFC 3C26 WHIRLPOOL ZMYWA</t>
   </si>
   <si>
     <t>WFE2B19 ZMYWARKAWHIRPOOL</t>
   </si>
   <si>
-    <t>WFE2B19X ZMYWARKAWHIRPOOL</t>
-  </si>
-  <si>
-    <t>WSIC3M17ZMYWARKAWHIRPOOL</t>
+    <t>WSIE2B19CZMYWARKAWHIRPOOL</t>
+  </si>
+  <si>
+    <t>DST3030/70ZELAZKOPHILIPS</t>
+  </si>
+  <si>
+    <t>DST5030/70ZELZAKO PHILIPS</t>
+  </si>
+  <si>
+    <t>GC4541/20 PHILIPS ŻELAZKO</t>
+  </si>
+  <si>
+    <t>GC1742/40 PHILIPS ŻELAZKO</t>
+  </si>
+  <si>
+    <t>GC4535/20 PHILIPS ŻELAZKO</t>
+  </si>
+  <si>
+    <t>GC4901/10 PHILIPS ŻELAZKO</t>
+  </si>
+  <si>
+    <t>GC4532/20 PHILIPS ŻELAZKO</t>
   </si>
 </sst>
 </file>
@@ -2456,9 +2565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H298"/>
+  <dimension ref="A1:H317"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2480,22 +2591,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2539,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2548,10 +2659,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5">
@@ -2561,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2570,10 +2681,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="5">
@@ -2583,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2592,10 +2703,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5">
-        <v>2800</v>
+        <v>199</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5">
@@ -2605,7 +2716,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2614,20 +2725,22 @@
         <v>7</v>
       </c>
       <c r="C7" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5">
-        <v>90</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2639,19 +2752,17 @@
         <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>90</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>301</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="5">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2660,22 +2771,22 @@
         <v>9</v>
       </c>
       <c r="C9" s="5">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="F9" s="5">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2684,10 +2795,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5">
-        <v>150</v>
+        <v>2800</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="5">
@@ -2697,7 +2808,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2706,20 +2817,22 @@
         <v>11</v>
       </c>
       <c r="C11" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="5">
-        <v>1930</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="F11" s="5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2731,17 +2844,19 @@
         <v>1</v>
       </c>
       <c r="D12" s="5">
-        <v>2100</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="F12" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2750,10 +2865,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="5">
@@ -2763,7 +2878,7 @@
         <v>13</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2772,22 +2887,22 @@
         <v>14</v>
       </c>
       <c r="C14" s="5">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D14" s="5">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="F14" s="5">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2796,20 +2911,22 @@
         <v>15</v>
       </c>
       <c r="C15" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="F15" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2818,10 +2935,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16" s="5">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="5">
@@ -2831,7 +2948,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2840,10 +2957,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D17" s="5">
-        <v>430</v>
+        <v>148</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="5">
@@ -2853,7 +2970,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2862,10 +2979,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" s="5">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="5">
@@ -2875,7 +2992,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2884,20 +3001,22 @@
         <v>19</v>
       </c>
       <c r="C19" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="F19" s="5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2909,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="5">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="5">
@@ -2919,7 +3038,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2931,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>1110</v>
+        <v>2100</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="5">
@@ -2941,7 +3060,7 @@
         <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2953,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="5">
-        <v>1120</v>
+        <v>3040</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="5">
@@ -2963,7 +3082,7 @@
         <v>22</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2972,22 +3091,22 @@
         <v>23</v>
       </c>
       <c r="C23" s="5">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D23" s="5">
-        <v>1290</v>
+        <v>230</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F23" s="5">
-        <v>50.3</v>
+        <v>4.3</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2996,22 +3115,20 @@
         <v>24</v>
       </c>
       <c r="C24" s="5">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D24" s="5">
-        <v>1090</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>304</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="5">
-        <v>39.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>24</v>
+        <v>334</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3020,20 +3137,20 @@
         <v>25</v>
       </c>
       <c r="C25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25" s="5">
-        <v>2430</v>
+        <v>280</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="5">
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>335</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3042,20 +3159,20 @@
         <v>26</v>
       </c>
       <c r="C26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="5">
-        <v>1580</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>336</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3064,10 +3181,10 @@
         <v>27</v>
       </c>
       <c r="C27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="5">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="5">
@@ -3077,7 +3194,7 @@
         <v>27</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3086,22 +3203,20 @@
         <v>28</v>
       </c>
       <c r="C28" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D28" s="5">
-        <v>1095</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="5">
-        <v>43.6</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3110,22 +3225,20 @@
         <v>29</v>
       </c>
       <c r="C29" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D29" s="5">
-        <v>1090</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="5">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3134,10 +3247,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D30" s="5">
-        <v>1120</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="5">
@@ -3147,7 +3260,7 @@
         <v>30</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3156,7 +3269,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D31" s="5">
         <v>1120</v>
@@ -3169,7 +3282,7 @@
         <v>31</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3178,20 +3291,22 @@
         <v>32</v>
       </c>
       <c r="C32" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="5">
-        <v>1160</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>1290</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="F32" s="5">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3203,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="5">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="5">
@@ -3213,7 +3328,7 @@
         <v>33</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3222,10 +3337,10 @@
         <v>34</v>
       </c>
       <c r="C34" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="5">
-        <v>1450</v>
+        <v>2430</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="5">
@@ -3235,7 +3350,7 @@
         <v>34</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3244,10 +3359,10 @@
         <v>35</v>
       </c>
       <c r="C35" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D35" s="5">
-        <v>399</v>
+        <v>1610</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="5">
@@ -3257,7 +3372,7 @@
         <v>35</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3266,20 +3381,22 @@
         <v>36</v>
       </c>
       <c r="C36" s="5">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D36" s="5">
-        <v>450</v>
-      </c>
-      <c r="E36" s="2"/>
+        <v>1130</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="F36" s="5">
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>317</v>
+        <v>36</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3288,20 +3405,22 @@
         <v>37</v>
       </c>
       <c r="C37" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" s="5">
-        <v>310</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>1090</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="F37" s="5">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>318</v>
+        <v>37</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3310,22 +3429,20 @@
         <v>38</v>
       </c>
       <c r="C38" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D38" s="5">
-        <v>2240</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="5">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3334,20 +3451,20 @@
         <v>39</v>
       </c>
       <c r="C39" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D39" s="5">
-        <v>2380</v>
+        <v>485</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="5">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>39</v>
+        <v>337</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3356,20 +3473,20 @@
         <v>40</v>
       </c>
       <c r="C40" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D40" s="5">
-        <v>1310</v>
+        <v>310</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="5">
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3381,17 +3498,19 @@
         <v>1</v>
       </c>
       <c r="D41" s="5">
-        <v>2400</v>
-      </c>
-      <c r="E41" s="2"/>
+        <v>2240</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="F41" s="5">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3403,19 +3522,17 @@
         <v>1</v>
       </c>
       <c r="D42" s="5">
-        <v>3690</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>303</v>
-      </c>
+        <v>2380</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="5">
-        <v>106.8</v>
+        <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3427,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="5">
-        <v>3045</v>
+        <v>1310</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="5">
@@ -3437,7 +3554,7 @@
         <v>43</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3446,10 +3563,10 @@
         <v>44</v>
       </c>
       <c r="C44" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="5">
-        <v>1855</v>
+        <v>2400</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="5">
@@ -3459,7 +3576,7 @@
         <v>44</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3471,17 +3588,19 @@
         <v>1</v>
       </c>
       <c r="D45" s="5">
-        <v>1595</v>
-      </c>
-      <c r="E45" s="2"/>
+        <v>3690</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="F45" s="5">
-        <v>0</v>
+        <v>106.8</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3490,10 +3609,10 @@
         <v>46</v>
       </c>
       <c r="C46" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="5">
-        <v>1610</v>
+        <v>3040</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="5">
@@ -3503,7 +3622,7 @@
         <v>46</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3515,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="5">
-        <v>1650</v>
+        <v>1760</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="5">
@@ -3525,7 +3644,7 @@
         <v>47</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3534,10 +3653,10 @@
         <v>48</v>
       </c>
       <c r="C48" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="5">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="5">
@@ -3547,7 +3666,7 @@
         <v>48</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3556,10 +3675,10 @@
         <v>49</v>
       </c>
       <c r="C49" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" s="5">
-        <v>1850</v>
+        <v>1595</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="5">
@@ -3569,7 +3688,7 @@
         <v>49</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3578,10 +3697,10 @@
         <v>50</v>
       </c>
       <c r="C50" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="5">
-        <v>3220</v>
+        <v>1610</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="5">
@@ -3591,7 +3710,7 @@
         <v>50</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3603,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="5">
-        <v>1240</v>
+        <v>1600</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="5">
@@ -3613,7 +3732,7 @@
         <v>51</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3622,10 +3741,10 @@
         <v>52</v>
       </c>
       <c r="C52" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="5">
-        <v>1180</v>
+        <v>1430</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="5">
@@ -3635,7 +3754,7 @@
         <v>52</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3644,10 +3763,10 @@
         <v>53</v>
       </c>
       <c r="C53" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="5">
-        <v>2190</v>
+        <v>1390</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="5">
@@ -3657,7 +3776,7 @@
         <v>53</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3669,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="5">
-        <v>2280</v>
+        <v>1180</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="5">
@@ -3679,7 +3798,7 @@
         <v>54</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3688,10 +3807,10 @@
         <v>55</v>
       </c>
       <c r="C55" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="5">
-        <v>2915</v>
+        <v>2299</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="5">
@@ -3701,7 +3820,7 @@
         <v>55</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3710,10 +3829,10 @@
         <v>56</v>
       </c>
       <c r="C56" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" s="5">
-        <v>2730</v>
+        <v>2690</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="5">
@@ -3723,7 +3842,7 @@
         <v>56</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3735,7 +3854,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="5">
-        <v>2835</v>
+        <v>2890</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="5">
@@ -3745,7 +3864,7 @@
         <v>57</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3754,10 +3873,10 @@
         <v>58</v>
       </c>
       <c r="C58" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D58" s="5">
-        <v>2280</v>
+        <v>2230</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="5">
@@ -3767,7 +3886,7 @@
         <v>58</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3776,10 +3895,10 @@
         <v>59</v>
       </c>
       <c r="C59" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D59" s="5">
-        <v>2255</v>
+        <v>2915</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="5">
@@ -3789,7 +3908,7 @@
         <v>59</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3798,10 +3917,10 @@
         <v>60</v>
       </c>
       <c r="C60" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" s="5">
-        <v>2170</v>
+        <v>2610</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="5">
@@ -3811,7 +3930,7 @@
         <v>60</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3820,10 +3939,10 @@
         <v>61</v>
       </c>
       <c r="C61" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" s="5">
-        <v>2460</v>
+        <v>2730</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="5">
@@ -3833,7 +3952,7 @@
         <v>61</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3845,7 +3964,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="5">
-        <v>2040</v>
+        <v>3410</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="5">
@@ -3855,7 +3974,7 @@
         <v>62</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3864,10 +3983,10 @@
         <v>63</v>
       </c>
       <c r="C63" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" s="5">
-        <v>1950</v>
+        <v>2485</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="5">
@@ -3877,7 +3996,7 @@
         <v>63</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3886,10 +4005,10 @@
         <v>64</v>
       </c>
       <c r="C64" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D64" s="5">
-        <v>1975</v>
+        <v>2255</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="5">
@@ -3899,7 +4018,7 @@
         <v>64</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3908,7 +4027,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D65" s="5">
         <v>2170</v>
@@ -3921,7 +4040,7 @@
         <v>65</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3930,10 +4049,10 @@
         <v>66</v>
       </c>
       <c r="C66" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D66" s="5">
-        <v>2260</v>
+        <v>2460</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="5">
@@ -3943,7 +4062,7 @@
         <v>66</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3955,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="5">
-        <v>2490</v>
+        <v>1950</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="5">
@@ -3965,7 +4084,7 @@
         <v>67</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3977,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="5">
-        <v>4630</v>
+        <v>2170</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="5">
@@ -3987,7 +4106,7 @@
         <v>68</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3996,10 +4115,10 @@
         <v>69</v>
       </c>
       <c r="C69" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D69" s="5">
-        <v>3350</v>
+        <v>2240</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="5">
@@ -4009,7 +4128,7 @@
         <v>69</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4018,10 +4137,10 @@
         <v>70</v>
       </c>
       <c r="C70" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="5">
-        <v>1899</v>
+        <v>2190</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="5">
@@ -4031,7 +4150,7 @@
         <v>70</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4040,22 +4159,20 @@
         <v>71</v>
       </c>
       <c r="C71" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D71" s="5">
-        <v>1185</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>4630</v>
+      </c>
+      <c r="E71" s="2"/>
       <c r="F71" s="5">
-        <v>32.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4064,22 +4181,20 @@
         <v>72</v>
       </c>
       <c r="C72" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D72" s="5">
-        <v>1620</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>3350</v>
+      </c>
+      <c r="E72" s="2"/>
       <c r="F72" s="5">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4088,20 +4203,22 @@
         <v>73</v>
       </c>
       <c r="C73" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D73" s="5">
-        <v>880</v>
-      </c>
-      <c r="E73" s="2"/>
+        <v>1230</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="F73" s="5">
-        <v>0</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>73</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4110,20 +4227,22 @@
         <v>74</v>
       </c>
       <c r="C74" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" s="5">
-        <v>1315</v>
-      </c>
-      <c r="E74" s="2"/>
+        <v>1630</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="F74" s="5">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4135,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="5">
-        <v>3060</v>
+        <v>880</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="5">
@@ -4145,7 +4264,7 @@
         <v>75</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4154,20 +4273,22 @@
         <v>76</v>
       </c>
       <c r="C76" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" s="5">
-        <v>2445</v>
-      </c>
-      <c r="E76" s="2"/>
+        <v>1470</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="F76" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4176,22 +4297,20 @@
         <v>77</v>
       </c>
       <c r="C77" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" s="5">
-        <v>3040</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>3060</v>
+      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="5">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4200,20 +4319,22 @@
         <v>78</v>
       </c>
       <c r="C78" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" s="5">
-        <v>1370</v>
-      </c>
-      <c r="E78" s="2"/>
+        <v>3130</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="F78" s="5">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4222,10 +4343,10 @@
         <v>79</v>
       </c>
       <c r="C79" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D79" s="5">
-        <v>1440</v>
+        <v>1370</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="5">
@@ -4235,7 +4356,7 @@
         <v>79</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4244,20 +4365,22 @@
         <v>80</v>
       </c>
       <c r="C80" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" s="5">
-        <v>1560</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>650</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F80" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>80</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4266,10 +4389,10 @@
         <v>81</v>
       </c>
       <c r="C81" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D81" s="5">
-        <v>995</v>
+        <v>420</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="5">
@@ -4279,7 +4402,7 @@
         <v>81</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4288,10 +4411,10 @@
         <v>82</v>
       </c>
       <c r="C82" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D82" s="5">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="5">
@@ -4301,7 +4424,7 @@
         <v>82</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4310,22 +4433,20 @@
         <v>83</v>
       </c>
       <c r="C83" s="5">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D83" s="5">
-        <v>440</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>306</v>
-      </c>
+        <v>1420</v>
+      </c>
+      <c r="E83" s="2"/>
       <c r="F83" s="5">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4334,10 +4455,10 @@
         <v>84</v>
       </c>
       <c r="C84" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="5">
-        <v>960</v>
+        <v>1820</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="5">
@@ -4347,7 +4468,7 @@
         <v>84</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4356,20 +4477,22 @@
         <v>85</v>
       </c>
       <c r="C85" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" s="5">
-        <v>1820</v>
-      </c>
-      <c r="E85" s="2"/>
+        <v>2120</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="F85" s="5">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4378,22 +4501,22 @@
         <v>86</v>
       </c>
       <c r="C86" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="5">
-        <v>2120</v>
+        <v>2330</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="F86" s="5">
-        <v>32</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4402,10 +4525,10 @@
         <v>87</v>
       </c>
       <c r="C87" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" s="5">
-        <v>320</v>
+        <v>740</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="5">
@@ -4415,7 +4538,7 @@
         <v>87</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4424,10 +4547,10 @@
         <v>88</v>
       </c>
       <c r="C88" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D88" s="5">
-        <v>1525</v>
+        <v>885</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="5">
@@ -4437,7 +4560,7 @@
         <v>88</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4449,19 +4572,17 @@
         <v>3</v>
       </c>
       <c r="D89" s="5">
-        <v>2430</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>307</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="E89" s="2"/>
       <c r="F89" s="5">
-        <v>18.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4473,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="5">
-        <v>830</v>
+        <v>325</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="5">
@@ -4483,7 +4604,7 @@
         <v>90</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4492,20 +4613,20 @@
         <v>91</v>
       </c>
       <c r="C91" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D91" s="5">
-        <v>740</v>
+        <v>470</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="5">
         <v>0</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>91</v>
+        <v>339</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4514,20 +4635,22 @@
         <v>92</v>
       </c>
       <c r="C92" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D92" s="5">
-        <v>885</v>
-      </c>
-      <c r="E92" s="2"/>
+        <v>1465</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="F92" s="5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>92</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4539,17 +4662,19 @@
         <v>3</v>
       </c>
       <c r="D93" s="5">
-        <v>910</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>1465</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="F93" s="5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4561,7 +4686,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="5">
-        <v>999</v>
+        <v>1250</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="5">
@@ -4571,7 +4696,7 @@
         <v>94</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4580,10 +4705,10 @@
         <v>95</v>
       </c>
       <c r="C95" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95" s="5">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="5">
@@ -4593,7 +4718,7 @@
         <v>95</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,10 +4727,10 @@
         <v>96</v>
       </c>
       <c r="C96" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D96" s="5">
-        <v>345</v>
+        <v>860</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="5">
@@ -4615,7 +4740,7 @@
         <v>96</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4627,17 +4752,19 @@
         <v>2</v>
       </c>
       <c r="D97" s="5">
-        <v>325</v>
-      </c>
-      <c r="E97" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F97" s="5">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4646,20 +4773,20 @@
         <v>98</v>
       </c>
       <c r="C98" s="5">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D98" s="5">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="5">
         <v>0</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>319</v>
+        <v>98</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4668,22 +4795,22 @@
         <v>99</v>
       </c>
       <c r="C99" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D99" s="5">
-        <v>1465</v>
+        <v>185</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F99" s="5">
-        <v>29</v>
+        <v>1.3</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>99</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4692,22 +4819,20 @@
         <v>100</v>
       </c>
       <c r="C100" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" s="5">
-        <v>1465</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E100" s="2"/>
       <c r="F100" s="5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4719,17 +4844,19 @@
         <v>2</v>
       </c>
       <c r="D101" s="5">
-        <v>1250</v>
-      </c>
-      <c r="E101" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F101" s="5">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4738,20 +4865,20 @@
         <v>102</v>
       </c>
       <c r="C102" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" s="5">
-        <v>385</v>
+        <v>93</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="5">
         <v>0</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4760,20 +4887,22 @@
         <v>103</v>
       </c>
       <c r="C103" s="5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D103" s="5">
-        <v>860</v>
-      </c>
-      <c r="E103" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F103" s="5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>103</v>
+        <v>340</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4782,20 +4911,22 @@
         <v>104</v>
       </c>
       <c r="C104" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D104" s="5">
-        <v>920</v>
-      </c>
-      <c r="E104" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F104" s="5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>321</v>
+        <v>104</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4804,22 +4935,22 @@
         <v>105</v>
       </c>
       <c r="C105" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D105" s="5">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="F105" s="5">
-        <v>2.2000000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4828,20 +4959,22 @@
         <v>106</v>
       </c>
       <c r="C106" s="5">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D106" s="5">
-        <v>180</v>
-      </c>
-      <c r="E106" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F106" s="5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>106</v>
+        <v>341</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4850,22 +4983,20 @@
         <v>107</v>
       </c>
       <c r="C107" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D107" s="5">
-        <v>185</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E107" s="2"/>
       <c r="F107" s="5">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>107</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4877,17 +5008,17 @@
         <v>1</v>
       </c>
       <c r="D108" s="5">
-        <v>199</v>
+        <v>870</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="5">
         <v>0</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>108</v>
+        <v>342</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4896,20 +5027,20 @@
         <v>109</v>
       </c>
       <c r="C109" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D109" s="5">
-        <v>195</v>
+        <v>1290</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="5">
         <v>0</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>109</v>
+        <v>343</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4918,22 +5049,20 @@
         <v>110</v>
       </c>
       <c r="C110" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D110" s="5">
-        <v>165</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E110" s="2"/>
       <c r="F110" s="5">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>110</v>
+        <v>344</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4942,22 +5071,20 @@
         <v>111</v>
       </c>
       <c r="C111" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D111" s="5">
-        <v>180</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E111" s="2"/>
       <c r="F111" s="5">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>456</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4966,20 +5093,20 @@
         <v>112</v>
       </c>
       <c r="C112" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D112" s="5">
-        <v>215</v>
+        <v>320</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="5">
         <v>0</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4988,22 +5115,22 @@
         <v>113</v>
       </c>
       <c r="C113" s="5">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D113" s="5">
-        <v>125</v>
+        <v>399</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F113" s="5">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>322</v>
+        <v>113</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5012,22 +5139,20 @@
         <v>114</v>
       </c>
       <c r="C114" s="5">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D114" s="5">
-        <v>80</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="E114" s="2"/>
       <c r="F114" s="5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>323</v>
+        <v>114</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5036,22 +5161,20 @@
         <v>115</v>
       </c>
       <c r="C115" s="5">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D115" s="5">
-        <v>80</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="E115" s="2"/>
       <c r="F115" s="5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>115</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5060,22 +5183,20 @@
         <v>116</v>
       </c>
       <c r="C116" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D116" s="5">
-        <v>80</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="E116" s="2"/>
       <c r="F116" s="5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>346</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5084,22 +5205,20 @@
         <v>117</v>
       </c>
       <c r="C117" s="5">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="D117" s="5">
-        <v>80</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="E117" s="2"/>
       <c r="F117" s="5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5108,10 +5227,10 @@
         <v>118</v>
       </c>
       <c r="C118" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D118" s="5">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="5">
@@ -5121,7 +5240,7 @@
         <v>118</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5130,20 +5249,20 @@
         <v>119</v>
       </c>
       <c r="C119" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119" s="5">
-        <v>870</v>
+        <v>385</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="5">
         <v>0</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>325</v>
+        <v>119</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5152,20 +5271,20 @@
         <v>120</v>
       </c>
       <c r="C120" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D120" s="5">
-        <v>1290</v>
+        <v>420</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="5">
         <v>0</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>326</v>
+        <v>120</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,20 +5293,20 @@
         <v>121</v>
       </c>
       <c r="C121" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D121" s="5">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="5">
         <v>0</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>327</v>
+        <v>121</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5196,20 +5315,22 @@
         <v>122</v>
       </c>
       <c r="C122" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D122" s="5">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="F122" s="5">
-        <v>0</v>
+        <v>7.45</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>122</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>122</v>
+        <v>483</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5218,20 +5339,22 @@
         <v>123</v>
       </c>
       <c r="C123" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D123" s="5">
-        <v>320</v>
-      </c>
-      <c r="E123" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="F123" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>328</v>
+        <v>123</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5240,22 +5363,20 @@
         <v>124</v>
       </c>
       <c r="C124" s="5">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D124" s="5">
-        <v>399</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>301</v>
-      </c>
+        <v>1720</v>
+      </c>
+      <c r="E124" s="2"/>
       <c r="F124" s="5">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>124</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5271,13 +5392,13 @@
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>125</v>
+        <v>348</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5286,10 +5407,10 @@
         <v>126</v>
       </c>
       <c r="C126" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D126" s="5">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="5">
@@ -5299,7 +5420,7 @@
         <v>126</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5308,10 +5429,10 @@
         <v>127</v>
       </c>
       <c r="C127" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127" s="5">
-        <v>695</v>
+        <v>1360</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="5">
@@ -5321,7 +5442,7 @@
         <v>127</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5330,20 +5451,20 @@
         <v>128</v>
       </c>
       <c r="C128" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D128" s="5">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="5">
         <v>0</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>329</v>
+        <v>128</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5352,20 +5473,20 @@
         <v>129</v>
       </c>
       <c r="C129" s="5">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D129" s="5">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="5">
         <v>0</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>330</v>
+        <v>129</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5374,20 +5495,22 @@
         <v>130</v>
       </c>
       <c r="C130" s="5">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D130" s="5">
-        <v>545</v>
-      </c>
-      <c r="E130" s="2"/>
+        <v>1330</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="F130" s="5">
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>331</v>
+        <v>130</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5396,10 +5519,10 @@
         <v>131</v>
       </c>
       <c r="C131" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D131" s="5">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="5">
@@ -5409,7 +5532,7 @@
         <v>131</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5418,10 +5541,10 @@
         <v>132</v>
       </c>
       <c r="C132" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D132" s="5">
-        <v>365</v>
+        <v>1330</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="5">
@@ -5431,7 +5554,7 @@
         <v>132</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5440,10 +5563,10 @@
         <v>133</v>
       </c>
       <c r="C133" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D133" s="5">
-        <v>420</v>
+        <v>2655</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="5">
@@ -5453,7 +5576,7 @@
         <v>133</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5462,22 +5585,20 @@
         <v>134</v>
       </c>
       <c r="C134" s="5">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D134" s="5">
-        <v>375</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>309</v>
-      </c>
+        <v>1740</v>
+      </c>
+      <c r="E134" s="2"/>
       <c r="F134" s="5">
-        <v>7.45</v>
+        <v>0</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>134</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5486,22 +5607,20 @@
         <v>135</v>
       </c>
       <c r="C135" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D135" s="5">
-        <v>360</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>309</v>
-      </c>
+        <v>930</v>
+      </c>
+      <c r="E135" s="2"/>
       <c r="F135" s="5">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5510,20 +5629,20 @@
         <v>136</v>
       </c>
       <c r="C136" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D136" s="5">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>332</v>
+        <v>136</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5532,10 +5651,10 @@
         <v>137</v>
       </c>
       <c r="C137" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D137" s="5">
-        <v>420</v>
+        <v>1090</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="5">
@@ -5545,7 +5664,7 @@
         <v>137</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5554,22 +5673,20 @@
         <v>138</v>
       </c>
       <c r="C138" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D138" s="5">
-        <v>430</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>310</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="E138" s="2"/>
       <c r="F138" s="5">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>333</v>
+        <v>138</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5581,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="5">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="5">
@@ -5591,7 +5708,7 @@
         <v>139</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5600,10 +5717,10 @@
         <v>140</v>
       </c>
       <c r="C140" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" s="5">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="5">
@@ -5613,7 +5730,7 @@
         <v>140</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5622,22 +5739,20 @@
         <v>141</v>
       </c>
       <c r="C141" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D141" s="5">
-        <v>1370</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>1690</v>
+      </c>
+      <c r="E141" s="2"/>
       <c r="F141" s="5">
-        <v>33.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5646,10 +5761,10 @@
         <v>142</v>
       </c>
       <c r="C142" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D142" s="5">
-        <v>1490</v>
+        <v>1775</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="5">
@@ -5659,7 +5774,7 @@
         <v>142</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5671,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="5">
-        <v>1380</v>
+        <v>1775</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="5">
@@ -5681,7 +5796,7 @@
         <v>143</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5690,10 +5805,10 @@
         <v>144</v>
       </c>
       <c r="C144" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D144" s="5">
-        <v>1740</v>
+        <v>2245</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="5">
@@ -5703,7 +5818,7 @@
         <v>144</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5712,22 +5827,20 @@
         <v>145</v>
       </c>
       <c r="C145" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D145" s="5">
-        <v>2700</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>310</v>
-      </c>
+        <v>1640</v>
+      </c>
+      <c r="E145" s="2"/>
       <c r="F145" s="5">
-        <v>37.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5736,10 +5849,10 @@
         <v>146</v>
       </c>
       <c r="C146" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D146" s="5">
-        <v>1090</v>
+        <v>1240</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="5">
@@ -5749,7 +5862,7 @@
         <v>146</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5758,10 +5871,10 @@
         <v>147</v>
       </c>
       <c r="C147" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147" s="5">
-        <v>985</v>
+        <v>1530</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="5">
@@ -5771,7 +5884,7 @@
         <v>147</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5780,20 +5893,22 @@
         <v>148</v>
       </c>
       <c r="C148" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D148" s="5">
-        <v>1175</v>
-      </c>
-      <c r="E148" s="2"/>
+        <v>2880</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="F148" s="5">
-        <v>0</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>148</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5802,20 +5917,22 @@
         <v>149</v>
       </c>
       <c r="C149" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149" s="5">
-        <v>1360</v>
-      </c>
-      <c r="E149" s="2"/>
+        <v>820</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="F149" s="5">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>149</v>
+        <v>349</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5824,20 +5941,22 @@
         <v>150</v>
       </c>
       <c r="C150" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D150" s="5">
-        <v>1210</v>
-      </c>
-      <c r="E150" s="2"/>
+        <v>960</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="F150" s="5">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5846,22 +5965,22 @@
         <v>151</v>
       </c>
       <c r="C151" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D151" s="5">
-        <v>2090</v>
+        <v>1290</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="F151" s="5">
-        <v>45.5</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>151</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5870,20 +5989,22 @@
         <v>152</v>
       </c>
       <c r="C152" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D152" s="5">
-        <v>1640</v>
-      </c>
-      <c r="E152" s="2"/>
+        <v>1370</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="F152" s="5">
-        <v>0</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>152</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5892,20 +6013,22 @@
         <v>153</v>
       </c>
       <c r="C153" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D153" s="5">
-        <v>1240</v>
-      </c>
-      <c r="E153" s="2"/>
+        <v>1370</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="F153" s="5">
-        <v>0</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>153</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5914,10 +6037,10 @@
         <v>154</v>
       </c>
       <c r="C154" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D154" s="5">
-        <v>1530</v>
+        <v>1190</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="5">
@@ -5927,7 +6050,7 @@
         <v>154</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5939,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="5">
-        <v>2170</v>
+        <v>1350</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="5">
@@ -5949,7 +6072,7 @@
         <v>155</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5958,22 +6081,20 @@
         <v>156</v>
       </c>
       <c r="C156" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D156" s="5">
-        <v>820</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>3080</v>
+      </c>
+      <c r="E156" s="2"/>
       <c r="F156" s="5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>334</v>
+        <v>156</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5982,22 +6103,22 @@
         <v>157</v>
       </c>
       <c r="C157" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D157" s="5">
-        <v>930</v>
+        <v>870</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F157" s="5">
-        <v>36</v>
+        <v>31.5</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6006,22 +6127,20 @@
         <v>158</v>
       </c>
       <c r="C158" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D158" s="5">
-        <v>960</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>1730</v>
+      </c>
+      <c r="E158" s="2"/>
       <c r="F158" s="5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>158</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6033,19 +6152,17 @@
         <v>3</v>
       </c>
       <c r="D159" s="5">
-        <v>1370</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>1610</v>
+      </c>
+      <c r="E159" s="2"/>
       <c r="F159" s="5">
-        <v>36.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>159</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6054,22 +6171,20 @@
         <v>160</v>
       </c>
       <c r="C160" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160" s="5">
-        <v>1290</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="E160" s="2"/>
       <c r="F160" s="5">
-        <v>36.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>160</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6081,19 +6196,17 @@
         <v>1</v>
       </c>
       <c r="D161" s="5">
-        <v>1370</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>1230</v>
+      </c>
+      <c r="E161" s="2"/>
       <c r="F161" s="5">
-        <v>36.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>161</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6102,22 +6215,22 @@
         <v>162</v>
       </c>
       <c r="C162" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162" s="5">
-        <v>1370</v>
+        <v>910</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="F162" s="5">
-        <v>36.299999999999997</v>
+        <v>11.5</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>162</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6126,10 +6239,10 @@
         <v>163</v>
       </c>
       <c r="C163" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D163" s="5">
-        <v>1370</v>
+        <v>880</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="5">
@@ -6139,7 +6252,7 @@
         <v>163</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6148,20 +6261,22 @@
         <v>164</v>
       </c>
       <c r="C164" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D164" s="5">
-        <v>1350</v>
-      </c>
-      <c r="E164" s="2"/>
+        <v>1230</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="F164" s="5">
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>164</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6170,10 +6285,10 @@
         <v>165</v>
       </c>
       <c r="C165" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D165" s="5">
-        <v>3080</v>
+        <v>1230</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="5">
@@ -6183,7 +6298,7 @@
         <v>165</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6192,10 +6307,10 @@
         <v>166</v>
       </c>
       <c r="C166" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D166" s="5">
-        <v>1730</v>
+        <v>1090</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="5">
@@ -6205,7 +6320,7 @@
         <v>166</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6214,10 +6329,10 @@
         <v>167</v>
       </c>
       <c r="C167" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D167" s="5">
-        <v>790</v>
+        <v>1720</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="5">
@@ -6227,7 +6342,7 @@
         <v>167</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6236,10 +6351,10 @@
         <v>168</v>
       </c>
       <c r="C168" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D168" s="5">
-        <v>1230</v>
+        <v>750</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="5">
@@ -6249,7 +6364,7 @@
         <v>168</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6258,22 +6373,20 @@
         <v>169</v>
       </c>
       <c r="C169" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" s="5">
-        <v>910</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>310</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="E169" s="2"/>
       <c r="F169" s="5">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>169</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6285,17 +6398,17 @@
         <v>1</v>
       </c>
       <c r="D170" s="5">
-        <v>1300</v>
+        <v>995</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="5">
         <v>0</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6304,20 +6417,22 @@
         <v>171</v>
       </c>
       <c r="C171" s="5">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D171" s="5">
-        <v>920</v>
-      </c>
-      <c r="E171" s="2"/>
+        <v>795</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F171" s="5">
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>171</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6326,10 +6441,10 @@
         <v>172</v>
       </c>
       <c r="C172" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D172" s="5">
-        <v>810</v>
+        <v>650</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="5">
@@ -6339,7 +6454,7 @@
         <v>172</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6348,10 +6463,10 @@
         <v>173</v>
       </c>
       <c r="C173" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" s="5">
-        <v>670</v>
+        <v>835</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="5">
@@ -6361,7 +6476,7 @@
         <v>173</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6373,7 +6488,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="5">
-        <v>835</v>
+        <v>885</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="5">
@@ -6383,7 +6498,7 @@
         <v>174</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6392,10 +6507,10 @@
         <v>175</v>
       </c>
       <c r="C175" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D175" s="5">
-        <v>1560</v>
+        <v>780</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="5">
@@ -6405,7 +6520,7 @@
         <v>175</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6414,10 +6529,10 @@
         <v>176</v>
       </c>
       <c r="C176" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D176" s="5">
-        <v>755</v>
+        <v>825</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="5">
@@ -6427,7 +6542,7 @@
         <v>176</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6436,22 +6551,22 @@
         <v>177</v>
       </c>
       <c r="C177" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D177" s="5">
-        <v>810</v>
+        <v>970</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="F177" s="5">
-        <v>18</v>
+        <v>8.15</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>177</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6463,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="D178" s="5">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="5">
@@ -6473,7 +6588,7 @@
         <v>178</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6482,10 +6597,10 @@
         <v>179</v>
       </c>
       <c r="C179" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D179" s="5">
-        <v>690</v>
+        <v>1230</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="5">
@@ -6495,7 +6610,7 @@
         <v>179</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6507,19 +6622,17 @@
         <v>1</v>
       </c>
       <c r="D180" s="5">
-        <v>1650</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>312</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="E180" s="2"/>
       <c r="F180" s="5">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>180</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6528,22 +6641,22 @@
         <v>181</v>
       </c>
       <c r="C181" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D181" s="5">
-        <v>470</v>
+        <v>810</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F181" s="5">
-        <v>11.1</v>
+        <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>181</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6555,17 +6668,19 @@
         <v>1</v>
       </c>
       <c r="D182" s="5">
-        <v>705</v>
-      </c>
-      <c r="E182" s="2"/>
+        <v>860</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="F182" s="5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>182</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6574,22 +6689,20 @@
         <v>183</v>
       </c>
       <c r="C183" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D183" s="5">
-        <v>720</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>1280</v>
+      </c>
+      <c r="E183" s="2"/>
       <c r="F183" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>183</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6598,20 +6711,22 @@
         <v>184</v>
       </c>
       <c r="C184" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184" s="5">
-        <v>760</v>
-      </c>
-      <c r="E184" s="2"/>
+        <v>1650</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="F184" s="5">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>184</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6623,19 +6738,19 @@
         <v>3</v>
       </c>
       <c r="D185" s="5">
-        <v>790</v>
+        <v>720</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="F185" s="5">
-        <v>13.7</v>
+        <v>9</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>185</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6644,10 +6759,10 @@
         <v>186</v>
       </c>
       <c r="C186" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D186" s="5">
-        <v>860</v>
+        <v>760</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="5">
@@ -6657,7 +6772,7 @@
         <v>186</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6666,20 +6781,22 @@
         <v>187</v>
       </c>
       <c r="C187" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D187" s="5">
-        <v>940</v>
-      </c>
-      <c r="E187" s="2"/>
+        <v>810</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="F187" s="5">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>187</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6688,10 +6805,10 @@
         <v>188</v>
       </c>
       <c r="C188" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D188" s="5">
-        <v>940</v>
+        <v>860</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="5">
@@ -6701,7 +6818,7 @@
         <v>188</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6710,10 +6827,10 @@
         <v>189</v>
       </c>
       <c r="C189" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D189" s="5">
-        <v>1150</v>
+        <v>940</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="5">
@@ -6723,7 +6840,7 @@
         <v>189</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6735,7 +6852,7 @@
         <v>2</v>
       </c>
       <c r="D190" s="5">
-        <v>1280</v>
+        <v>940</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="5">
@@ -6745,7 +6862,7 @@
         <v>190</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6757,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="5">
-        <v>1770</v>
+        <v>940</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="5">
@@ -6767,7 +6884,7 @@
         <v>191</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6776,10 +6893,10 @@
         <v>192</v>
       </c>
       <c r="C192" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D192" s="5">
-        <v>1040</v>
+        <v>980</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="5">
@@ -6789,7 +6906,7 @@
         <v>192</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6798,10 +6915,10 @@
         <v>193</v>
       </c>
       <c r="C193" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193" s="5">
-        <v>1250</v>
+        <v>1040</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="5">
@@ -6811,7 +6928,7 @@
         <v>193</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6823,19 +6940,17 @@
         <v>1</v>
       </c>
       <c r="D194" s="5">
-        <v>1890</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>2420</v>
+      </c>
+      <c r="E194" s="2"/>
       <c r="F194" s="5">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>335</v>
+        <v>194</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6847,17 +6962,17 @@
         <v>1</v>
       </c>
       <c r="D195" s="5">
-        <v>980</v>
+        <v>525</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="5">
         <v>0</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>195</v>
+        <v>351</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6872,7 +6987,7 @@
         <v>1440</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F196" s="5">
         <v>68</v>
@@ -6881,7 +6996,7 @@
         <v>196</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6890,22 +7005,20 @@
         <v>197</v>
       </c>
       <c r="C197" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D197" s="5">
-        <v>1540</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>1480</v>
+      </c>
+      <c r="E197" s="2"/>
       <c r="F197" s="5">
-        <v>69.5</v>
+        <v>0</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>197</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6914,20 +7027,22 @@
         <v>198</v>
       </c>
       <c r="C198" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198" s="5">
-        <v>1570</v>
-      </c>
-      <c r="E198" s="2"/>
+        <v>1560</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="F198" s="5">
-        <v>0</v>
+        <v>71.2</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>198</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6939,19 +7054,17 @@
         <v>2</v>
       </c>
       <c r="D199" s="5">
-        <v>1560</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>1570</v>
+      </c>
+      <c r="E199" s="2"/>
       <c r="F199" s="5">
-        <v>71.2</v>
+        <v>0</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>199</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6960,10 +7073,10 @@
         <v>200</v>
       </c>
       <c r="C200" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D200" s="5">
-        <v>1520</v>
+        <v>1700</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="5">
@@ -6973,7 +7086,7 @@
         <v>200</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6985,17 +7098,17 @@
         <v>4</v>
       </c>
       <c r="D201" s="5">
-        <v>1530</v>
+        <v>1950</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="5">
         <v>0</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>201</v>
+        <v>352</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7004,10 +7117,10 @@
         <v>202</v>
       </c>
       <c r="C202" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202" s="5">
-        <v>1855</v>
+        <v>3400</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="5">
@@ -7017,7 +7130,7 @@
         <v>202</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7026,10 +7139,10 @@
         <v>203</v>
       </c>
       <c r="C203" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D203" s="5">
-        <v>3400</v>
+        <v>1470</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="5">
@@ -7039,7 +7152,7 @@
         <v>203</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7051,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="D204" s="5">
-        <v>1470</v>
+        <v>1390</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="5">
@@ -7061,7 +7174,7 @@
         <v>204</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7073,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="D205" s="5">
-        <v>1390</v>
+        <v>1150</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="5">
@@ -7083,7 +7196,7 @@
         <v>205</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7092,10 +7205,10 @@
         <v>206</v>
       </c>
       <c r="C206" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D206" s="5">
-        <v>1030</v>
+        <v>999</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="5">
@@ -7105,7 +7218,7 @@
         <v>206</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7114,10 +7227,10 @@
         <v>207</v>
       </c>
       <c r="C207" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D207" s="5">
-        <v>999</v>
+        <v>1130</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="5">
@@ -7127,7 +7240,7 @@
         <v>207</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7136,10 +7249,10 @@
         <v>208</v>
       </c>
       <c r="C208" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208" s="5">
-        <v>1130</v>
+        <v>0</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="5">
@@ -7149,7 +7262,7 @@
         <v>208</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7158,10 +7271,10 @@
         <v>209</v>
       </c>
       <c r="C209" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D209" s="5">
-        <v>0</v>
+        <v>1390</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="5">
@@ -7171,7 +7284,7 @@
         <v>209</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7180,20 +7293,20 @@
         <v>210</v>
       </c>
       <c r="C210" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210" s="5">
-        <v>1520</v>
+        <v>1570</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="5">
         <v>0</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>336</v>
+        <v>210</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7202,10 +7315,10 @@
         <v>211</v>
       </c>
       <c r="C211" s="5">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D211" s="5">
-        <v>1420</v>
+        <v>1540</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="5">
@@ -7215,7 +7328,7 @@
         <v>211</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7224,10 +7337,10 @@
         <v>212</v>
       </c>
       <c r="C212" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D212" s="5">
-        <v>1310</v>
+        <v>1525</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="5">
@@ -7237,7 +7350,7 @@
         <v>212</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7246,10 +7359,10 @@
         <v>213</v>
       </c>
       <c r="C213" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" s="5">
-        <v>1580</v>
+        <v>1650</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="5">
@@ -7259,7 +7372,7 @@
         <v>213</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7271,7 +7384,7 @@
         <v>2</v>
       </c>
       <c r="D214" s="5">
-        <v>1525</v>
+        <v>2070</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="5">
@@ -7281,7 +7394,7 @@
         <v>214</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7290,10 +7403,10 @@
         <v>215</v>
       </c>
       <c r="C215" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215" s="5">
-        <v>1740</v>
+        <v>1680</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="5">
@@ -7303,7 +7416,7 @@
         <v>215</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7312,10 +7425,10 @@
         <v>216</v>
       </c>
       <c r="C216" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D216" s="5">
-        <v>1330</v>
+        <v>1740</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="5">
@@ -7325,7 +7438,7 @@
         <v>216</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7334,10 +7447,10 @@
         <v>217</v>
       </c>
       <c r="C217" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D217" s="5">
-        <v>1290</v>
+        <v>1330</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="5">
@@ -7347,7 +7460,7 @@
         <v>217</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7356,10 +7469,10 @@
         <v>218</v>
       </c>
       <c r="C218" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D218" s="5">
-        <v>1250</v>
+        <v>1290</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="5">
@@ -7369,7 +7482,7 @@
         <v>218</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7381,7 +7494,7 @@
         <v>2</v>
       </c>
       <c r="D219" s="5">
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="5">
@@ -7391,7 +7504,7 @@
         <v>219</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7400,7 +7513,7 @@
         <v>220</v>
       </c>
       <c r="C220" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220" s="5">
         <v>1230</v>
@@ -7413,7 +7526,7 @@
         <v>220</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7422,10 +7535,10 @@
         <v>221</v>
       </c>
       <c r="C221" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D221" s="5">
-        <v>1120</v>
+        <v>1290</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="5">
@@ -7435,7 +7548,7 @@
         <v>221</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7444,20 +7557,20 @@
         <v>222</v>
       </c>
       <c r="C222" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D222" s="5">
-        <v>2760</v>
+        <v>1220</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="5">
         <v>0</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7466,10 +7579,10 @@
         <v>223</v>
       </c>
       <c r="C223" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D223" s="5">
-        <v>99</v>
+        <v>1120</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="5">
@@ -7479,7 +7592,7 @@
         <v>223</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>223</v>
+        <v>584</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7488,20 +7601,20 @@
         <v>224</v>
       </c>
       <c r="C224" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D224" s="5">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="5">
         <v>0</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>338</v>
+        <v>224</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7513,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="D225" s="5">
-        <v>0</v>
+        <v>1640</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="5">
@@ -7523,7 +7636,7 @@
         <v>225</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7532,20 +7645,20 @@
         <v>226</v>
       </c>
       <c r="C226" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D226" s="5">
-        <v>290</v>
+        <v>2760</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="5">
         <v>0</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7557,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="D227" s="5">
-        <v>1300</v>
+        <v>3060</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="5">
@@ -7567,7 +7680,7 @@
         <v>227</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7576,20 +7689,20 @@
         <v>228</v>
       </c>
       <c r="C228" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D228" s="5">
-        <v>90</v>
+        <v>2350</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7598,22 +7711,20 @@
         <v>229</v>
       </c>
       <c r="C229" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D229" s="5">
-        <v>1850</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>310</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E229" s="2"/>
       <c r="F229" s="5">
-        <v>49.5</v>
+        <v>0</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>229</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>572</v>
+        <v>229</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7622,22 +7733,20 @@
         <v>230</v>
       </c>
       <c r="C230" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D230" s="5">
-        <v>2520</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="E230" s="2"/>
       <c r="F230" s="5">
-        <v>54.2</v>
+        <v>0</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>230</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7646,10 +7755,10 @@
         <v>231</v>
       </c>
       <c r="C231" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D231" s="5">
-        <v>2180</v>
+        <v>675</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="5">
@@ -7659,7 +7768,7 @@
         <v>231</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7671,17 +7780,17 @@
         <v>1</v>
       </c>
       <c r="D232" s="5">
-        <v>2710</v>
+        <v>0</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="5">
         <v>0</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7690,10 +7799,10 @@
         <v>233</v>
       </c>
       <c r="C233" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233" s="5">
-        <v>2690</v>
+        <v>0</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="5">
@@ -7703,7 +7812,7 @@
         <v>233</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7712,10 +7821,10 @@
         <v>234</v>
       </c>
       <c r="C234" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D234" s="5">
-        <v>1660</v>
+        <v>1300</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="5">
@@ -7725,7 +7834,7 @@
         <v>234</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7734,10 +7843,10 @@
         <v>235</v>
       </c>
       <c r="C235" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D235" s="5">
-        <v>1760</v>
+        <v>85</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="5">
@@ -7747,7 +7856,7 @@
         <v>235</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7756,20 +7865,20 @@
         <v>236</v>
       </c>
       <c r="C236" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D236" s="5">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="5">
         <v>0</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>340</v>
+        <v>236</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>340</v>
+        <v>596</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7781,7 +7890,7 @@
         <v>10</v>
       </c>
       <c r="D237" s="5">
-        <v>840</v>
+        <v>115</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="5">
@@ -7791,7 +7900,7 @@
         <v>237</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7803,17 +7912,17 @@
         <v>1</v>
       </c>
       <c r="D238" s="5">
-        <v>670</v>
+        <v>90</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>238</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7822,20 +7931,22 @@
         <v>239</v>
       </c>
       <c r="C239" s="5">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D239" s="5">
-        <v>1050</v>
-      </c>
-      <c r="E239" s="2"/>
+        <v>1850</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="F239" s="5">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>239</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7844,10 +7955,10 @@
         <v>240</v>
       </c>
       <c r="C240" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D240" s="5">
-        <v>1230</v>
+        <v>2210</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="5">
@@ -7857,7 +7968,7 @@
         <v>240</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>240</v>
+        <v>600</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7866,20 +7977,22 @@
         <v>241</v>
       </c>
       <c r="C241" s="5">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D241" s="5">
-        <v>1440</v>
-      </c>
-      <c r="E241" s="2"/>
+        <v>2310</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="F241" s="5">
-        <v>0</v>
+        <v>50.6</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>241</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7888,20 +8001,20 @@
         <v>242</v>
       </c>
       <c r="C242" s="5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D242" s="5">
-        <v>1900</v>
+        <v>150</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="5">
         <v>0</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>242</v>
+        <v>356</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7910,20 +8023,20 @@
         <v>243</v>
       </c>
       <c r="C243" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243" s="5">
-        <v>1900</v>
+        <v>220</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="5">
         <v>0</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>243</v>
+        <v>357</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7932,10 +8045,10 @@
         <v>244</v>
       </c>
       <c r="C244" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D244" s="5">
-        <v>2270</v>
+        <v>200</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="5">
@@ -7945,7 +8058,7 @@
         <v>244</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7954,10 +8067,10 @@
         <v>245</v>
       </c>
       <c r="C245" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D245" s="5">
-        <v>1890</v>
+        <v>2820</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="5">
@@ -7967,7 +8080,7 @@
         <v>245</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7976,10 +8089,10 @@
         <v>246</v>
       </c>
       <c r="C246" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D246" s="5">
-        <v>2480</v>
+        <v>90</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="5">
@@ -7989,7 +8102,7 @@
         <v>246</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7998,10 +8111,10 @@
         <v>247</v>
       </c>
       <c r="C247" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D247" s="5">
-        <v>1540</v>
+        <v>2740</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="5">
@@ -8011,7 +8124,7 @@
         <v>247</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8020,10 +8133,10 @@
         <v>248</v>
       </c>
       <c r="C248" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D248" s="5">
-        <v>1740</v>
+        <v>2920</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="5">
@@ -8033,7 +8146,7 @@
         <v>248</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8042,20 +8155,22 @@
         <v>249</v>
       </c>
       <c r="C249" s="5">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D249" s="5">
-        <v>1820</v>
-      </c>
-      <c r="E249" s="2"/>
+        <v>1890</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="F249" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G249" s="2" t="s">
         <v>249</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8064,10 +8179,10 @@
         <v>250</v>
       </c>
       <c r="C250" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D250" s="5">
-        <v>820</v>
+        <v>2690</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="5">
@@ -8077,7 +8192,7 @@
         <v>250</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8086,10 +8201,10 @@
         <v>251</v>
       </c>
       <c r="C251" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D251" s="5">
-        <v>1140</v>
+        <v>1899</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="5">
@@ -8099,7 +8214,7 @@
         <v>251</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8108,10 +8223,10 @@
         <v>252</v>
       </c>
       <c r="C252" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D252" s="5">
-        <v>1230</v>
+        <v>1980</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="5">
@@ -8121,7 +8236,7 @@
         <v>252</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8130,10 +8245,10 @@
         <v>253</v>
       </c>
       <c r="C253" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253" s="5">
-        <v>0</v>
+        <v>1865</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="5">
@@ -8143,7 +8258,7 @@
         <v>253</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8152,20 +8267,20 @@
         <v>254</v>
       </c>
       <c r="C254" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D254" s="5">
-        <v>1999</v>
+        <v>0</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="5">
         <v>0</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>254</v>
+        <v>358</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>595</v>
+        <v>358</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8174,20 +8289,20 @@
         <v>255</v>
       </c>
       <c r="C255" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D255" s="5">
-        <v>2800</v>
+        <v>75</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="5">
         <v>0</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>255</v>
+        <v>359</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8196,20 +8311,20 @@
         <v>256</v>
       </c>
       <c r="C256" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256" s="5">
-        <v>3100</v>
+        <v>30</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="5">
         <v>0</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>256</v>
+        <v>360</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8218,22 +8333,20 @@
         <v>257</v>
       </c>
       <c r="C257" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D257" s="5">
-        <v>999</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="E257" s="2"/>
       <c r="F257" s="5">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>257</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8242,10 +8355,10 @@
         <v>258</v>
       </c>
       <c r="C258" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D258" s="5">
-        <v>1580</v>
+        <v>670</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="5">
@@ -8255,7 +8368,7 @@
         <v>258</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8264,10 +8377,10 @@
         <v>259</v>
       </c>
       <c r="C259" s="5">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D259" s="5">
-        <v>1640</v>
+        <v>1050</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259" s="5">
@@ -8277,7 +8390,7 @@
         <v>259</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8286,10 +8399,10 @@
         <v>260</v>
       </c>
       <c r="C260" s="5">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D260" s="5">
-        <v>2499</v>
+        <v>1230</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="5">
@@ -8299,7 +8412,7 @@
         <v>260</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>601</v>
+        <v>260</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8308,10 +8421,10 @@
         <v>261</v>
       </c>
       <c r="C261" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D261" s="5">
-        <v>110</v>
+        <v>1420</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="5">
@@ -8321,7 +8434,7 @@
         <v>261</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8330,22 +8443,20 @@
         <v>262</v>
       </c>
       <c r="C262" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D262" s="5">
-        <v>1420</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>1690</v>
+      </c>
+      <c r="E262" s="2"/>
       <c r="F262" s="5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>262</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8354,22 +8465,20 @@
         <v>263</v>
       </c>
       <c r="C263" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D263" s="5">
-        <v>1465</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>1750</v>
+      </c>
+      <c r="E263" s="2"/>
       <c r="F263" s="5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>263</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8378,20 +8487,20 @@
         <v>264</v>
       </c>
       <c r="C264" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D264" s="5">
-        <v>29</v>
+        <v>1750</v>
       </c>
       <c r="E264" s="2"/>
       <c r="F264" s="5">
         <v>0</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8403,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="D265" s="5">
-        <v>24</v>
+        <v>2270</v>
       </c>
       <c r="E265" s="2"/>
       <c r="F265" s="5">
@@ -8413,7 +8522,7 @@
         <v>265</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8425,17 +8534,17 @@
         <v>3</v>
       </c>
       <c r="D266" s="5">
-        <v>50</v>
+        <v>1890</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266" s="5">
         <v>0</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>342</v>
+        <v>266</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8447,17 +8556,17 @@
         <v>1</v>
       </c>
       <c r="D267" s="5">
-        <v>410</v>
+        <v>1820</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" s="5">
         <v>0</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8466,10 +8575,10 @@
         <v>268</v>
       </c>
       <c r="C268" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D268" s="5">
-        <v>2000</v>
+        <v>820</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" s="5">
@@ -8479,7 +8588,7 @@
         <v>268</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8488,10 +8597,10 @@
         <v>269</v>
       </c>
       <c r="C269" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D269" s="5">
-        <v>2080</v>
+        <v>1230</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" s="5">
@@ -8501,7 +8610,7 @@
         <v>269</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8510,22 +8619,22 @@
         <v>270</v>
       </c>
       <c r="C270" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D270" s="5">
-        <v>810</v>
+        <v>990</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="F270" s="5">
-        <v>32.5</v>
+        <v>5.8</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>270</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8534,10 +8643,10 @@
         <v>271</v>
       </c>
       <c r="C271" s="5">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D271" s="5">
-        <v>2290</v>
+        <v>1670</v>
       </c>
       <c r="E271" s="2"/>
       <c r="F271" s="5">
@@ -8547,7 +8656,7 @@
         <v>271</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8556,10 +8665,10 @@
         <v>272</v>
       </c>
       <c r="C272" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D272" s="5">
-        <v>850</v>
+        <v>80</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="5">
@@ -8569,7 +8678,7 @@
         <v>272</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8578,10 +8687,10 @@
         <v>273</v>
       </c>
       <c r="C273" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D273" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E273" s="2"/>
       <c r="F273" s="5">
@@ -8591,7 +8700,7 @@
         <v>273</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8600,20 +8709,20 @@
         <v>274</v>
       </c>
       <c r="C274" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D274" s="5">
-        <v>1755</v>
+        <v>80</v>
       </c>
       <c r="E274" s="2"/>
       <c r="F274" s="5">
         <v>0</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8622,20 +8731,20 @@
         <v>275</v>
       </c>
       <c r="C275" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D275" s="5">
-        <v>1820</v>
+        <v>80</v>
       </c>
       <c r="E275" s="2"/>
       <c r="F275" s="5">
         <v>0</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8644,22 +8753,20 @@
         <v>276</v>
       </c>
       <c r="C276" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D276" s="5">
-        <v>1440</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E276" s="2"/>
       <c r="F276" s="5">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>276</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8671,19 +8778,17 @@
         <v>15</v>
       </c>
       <c r="D277" s="5">
-        <v>1380</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E277" s="2"/>
       <c r="F277" s="5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>277</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8692,20 +8797,22 @@
         <v>278</v>
       </c>
       <c r="C278" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D278" s="5">
-        <v>1790</v>
-      </c>
-      <c r="E278" s="2"/>
+        <v>1465</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="F278" s="5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>278</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8714,10 +8821,10 @@
         <v>279</v>
       </c>
       <c r="C279" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D279" s="5">
-        <v>2320</v>
+        <v>24</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" s="5">
@@ -8727,7 +8834,7 @@
         <v>279</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8739,19 +8846,17 @@
         <v>1</v>
       </c>
       <c r="D280" s="5">
-        <v>2060</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="E280" s="2"/>
       <c r="F280" s="5">
-        <v>38.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>280</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8760,20 +8865,22 @@
         <v>281</v>
       </c>
       <c r="C281" s="5">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D281" s="5">
-        <v>1999</v>
-      </c>
-      <c r="E281" s="2"/>
+        <v>1120</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="F281" s="5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>281</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8782,22 +8889,20 @@
         <v>282</v>
       </c>
       <c r="C282" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D282" s="5">
-        <v>1750</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>2290</v>
+      </c>
+      <c r="E282" s="2"/>
       <c r="F282" s="5">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>282</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8806,10 +8911,10 @@
         <v>283</v>
       </c>
       <c r="C283" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D283" s="5">
-        <v>1910</v>
+        <v>850</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="5">
@@ -8819,7 +8924,7 @@
         <v>283</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8831,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="D284" s="5">
-        <v>1710</v>
+        <v>0</v>
       </c>
       <c r="E284" s="2"/>
       <c r="F284" s="5">
@@ -8841,7 +8946,7 @@
         <v>284</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8850,20 +8955,20 @@
         <v>285</v>
       </c>
       <c r="C285" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D285" s="5">
-        <v>1850</v>
+        <v>1755</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" s="5">
         <v>0</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8872,20 +8977,20 @@
         <v>286</v>
       </c>
       <c r="C286" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D286" s="5">
-        <v>1270</v>
+        <v>1820</v>
       </c>
       <c r="E286" s="2"/>
       <c r="F286" s="5">
         <v>0</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8894,10 +8999,10 @@
         <v>287</v>
       </c>
       <c r="C287" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D287" s="5">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" s="5">
@@ -8907,7 +9012,7 @@
         <v>287</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8916,10 +9021,10 @@
         <v>288</v>
       </c>
       <c r="C288" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D288" s="5">
-        <v>1190</v>
+        <v>2410</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="5">
@@ -8929,7 +9034,7 @@
         <v>288</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8938,20 +9043,22 @@
         <v>289</v>
       </c>
       <c r="C289" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D289" s="5">
-        <v>1440</v>
-      </c>
-      <c r="E289" s="2"/>
+        <v>1530</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="F289" s="5">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>289</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8963,7 +9070,7 @@
         <v>1</v>
       </c>
       <c r="D290" s="5">
-        <v>1540</v>
+        <v>1830</v>
       </c>
       <c r="E290" s="2"/>
       <c r="F290" s="5">
@@ -8973,7 +9080,7 @@
         <v>290</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8982,22 +9089,22 @@
         <v>291</v>
       </c>
       <c r="C291" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D291" s="5">
-        <v>1950</v>
+        <v>1480</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F291" s="5">
-        <v>35.799999999999997</v>
+        <v>32</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>291</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9009,19 +9116,19 @@
         <v>2</v>
       </c>
       <c r="D292" s="5">
-        <v>1540</v>
+        <v>1580</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F292" s="5">
-        <v>33.4</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>292</v>
+        <v>362</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9030,22 +9137,20 @@
         <v>293</v>
       </c>
       <c r="C293" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D293" s="5">
-        <v>1740</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>1820</v>
+      </c>
+      <c r="E293" s="2"/>
       <c r="F293" s="5">
-        <v>38.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>293</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9057,7 +9162,7 @@
         <v>2</v>
       </c>
       <c r="D294" s="5">
-        <v>1460</v>
+        <v>2399</v>
       </c>
       <c r="E294" s="2"/>
       <c r="F294" s="5">
@@ -9067,7 +9172,7 @@
         <v>294</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9076,20 +9181,22 @@
         <v>295</v>
       </c>
       <c r="C295" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D295" s="5">
-        <v>1470</v>
-      </c>
-      <c r="E295" s="2"/>
+        <v>2060</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="F295" s="5">
-        <v>0</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9098,22 +9205,20 @@
         <v>296</v>
       </c>
       <c r="C296" s="5">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D296" s="5">
-        <v>1570</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>1990</v>
+      </c>
+      <c r="E296" s="2"/>
       <c r="F296" s="5">
-        <v>44.9</v>
+        <v>0</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9122,33 +9227,457 @@
         <v>297</v>
       </c>
       <c r="C297" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D297" s="5">
-        <v>1330</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>1710</v>
+      </c>
+      <c r="E297" s="2"/>
       <c r="F297" s="5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>297</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A298" s="3"/>
-      <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
-      <c r="D298" s="4"/>
-      <c r="E298" s="4"/>
-      <c r="F298" s="4"/>
-      <c r="G298" s="4"/>
-      <c r="H298" s="6"/>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="2"/>
+      <c r="B298" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C298" s="5">
+        <v>2</v>
+      </c>
+      <c r="D298" s="5">
+        <v>1750</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F298" s="5">
+        <v>29.5</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H298" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="2"/>
+      <c r="B299" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C299" s="5">
+        <v>5</v>
+      </c>
+      <c r="D299" s="5">
+        <v>1850</v>
+      </c>
+      <c r="E299" s="2"/>
+      <c r="F299" s="5">
+        <v>0</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="2"/>
+      <c r="B300" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C300" s="5">
+        <v>8</v>
+      </c>
+      <c r="D300" s="5">
+        <v>1790</v>
+      </c>
+      <c r="E300" s="2"/>
+      <c r="F300" s="5">
+        <v>0</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="2"/>
+      <c r="B301" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C301" s="5">
+        <v>2</v>
+      </c>
+      <c r="D301" s="5">
+        <v>1850</v>
+      </c>
+      <c r="E301" s="2"/>
+      <c r="F301" s="5">
+        <v>0</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="2"/>
+      <c r="B302" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C302" s="5">
+        <v>1</v>
+      </c>
+      <c r="D302" s="5">
+        <v>1270</v>
+      </c>
+      <c r="E302" s="2"/>
+      <c r="F302" s="5">
+        <v>0</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="2"/>
+      <c r="B303" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C303" s="5">
+        <v>4</v>
+      </c>
+      <c r="D303" s="5">
+        <v>1190</v>
+      </c>
+      <c r="E303" s="2"/>
+      <c r="F303" s="5">
+        <v>0</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H303" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="2"/>
+      <c r="B304" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C304" s="5">
+        <v>12</v>
+      </c>
+      <c r="D304" s="5">
+        <v>1520</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F304" s="5">
+        <v>33.4</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H304" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="2"/>
+      <c r="B305" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C305" s="5">
+        <v>7</v>
+      </c>
+      <c r="D305" s="5">
+        <v>1710</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F305" s="5">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H305" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="2"/>
+      <c r="B306" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C306" s="5">
+        <v>1</v>
+      </c>
+      <c r="D306" s="5">
+        <v>2530</v>
+      </c>
+      <c r="E306" s="2"/>
+      <c r="F306" s="5">
+        <v>0</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="2"/>
+      <c r="B307" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C307" s="5">
+        <v>1</v>
+      </c>
+      <c r="D307" s="5">
+        <v>1460</v>
+      </c>
+      <c r="E307" s="2"/>
+      <c r="F307" s="5">
+        <v>0</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H307" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="2"/>
+      <c r="B308" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C308" s="5">
+        <v>2</v>
+      </c>
+      <c r="D308" s="5">
+        <v>1470</v>
+      </c>
+      <c r="E308" s="2"/>
+      <c r="F308" s="5">
+        <v>0</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H308" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="2"/>
+      <c r="B309" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C309" s="5">
+        <v>2</v>
+      </c>
+      <c r="D309" s="5">
+        <v>1380</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F309" s="5">
+        <v>29</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H309" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="2"/>
+      <c r="B310" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C310" s="5">
+        <v>4</v>
+      </c>
+      <c r="D310" s="5">
+        <v>155</v>
+      </c>
+      <c r="E310" s="2"/>
+      <c r="F310" s="5">
+        <v>0</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H310" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="2"/>
+      <c r="B311" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C311" s="5">
+        <v>19</v>
+      </c>
+      <c r="D311" s="5">
+        <v>210</v>
+      </c>
+      <c r="E311" s="2"/>
+      <c r="F311" s="5">
+        <v>0</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H311" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="2"/>
+      <c r="B312" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C312" s="5">
+        <v>23</v>
+      </c>
+      <c r="D312" s="5">
+        <v>210</v>
+      </c>
+      <c r="E312" s="2"/>
+      <c r="F312" s="5">
+        <v>0</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H312" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="2"/>
+      <c r="B313" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C313" s="5">
+        <v>5</v>
+      </c>
+      <c r="D313" s="5">
+        <v>97</v>
+      </c>
+      <c r="E313" s="2"/>
+      <c r="F313" s="5">
+        <v>0</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H313" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="2"/>
+      <c r="B314" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C314" s="5">
+        <v>20</v>
+      </c>
+      <c r="D314" s="5">
+        <v>215</v>
+      </c>
+      <c r="E314" s="2"/>
+      <c r="F314" s="5">
+        <v>0</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H314" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="2"/>
+      <c r="B315" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C315" s="5">
+        <v>2</v>
+      </c>
+      <c r="D315" s="5">
+        <v>390</v>
+      </c>
+      <c r="E315" s="2"/>
+      <c r="F315" s="5">
+        <v>0</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H315" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="2"/>
+      <c r="B316" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C316" s="5">
+        <v>2</v>
+      </c>
+      <c r="D316" s="5">
+        <v>235</v>
+      </c>
+      <c r="E316" s="2"/>
+      <c r="F316" s="5">
+        <v>0</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H316" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A317" s="3"/>
+      <c r="B317" s="4"/>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4"/>
+      <c r="E317" s="4"/>
+      <c r="F317" s="4"/>
+      <c r="G317" s="4"/>
+      <c r="H317" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
